--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\x-template\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selfimba\imba\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412C71D0-6D5F-4A8D-8E22-CE819A90820D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84318447-22D1-4390-BEAA-3140C006973B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="11400" windowWidth="29040" windowHeight="15840" tabRatio="323" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="323" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="herolist" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="1485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="1487">
   <si>
     <t>主键</t>
   </si>
@@ -4526,10 +4526,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>ability_test</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>value</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -4588,6 +4584,18 @@
   </si>
   <si>
     <t>因为第二行的key没有写东西，因此这一行的内容不会被输出到kv文件中，可以自己任意写其他内容</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_attack_ability</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DOTA_ABILITY_BEHAVIOR_HIDDEN </t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr_damage</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -4826,15 +4834,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4857,10 +4864,10 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4875,7 +4882,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4899,7 +4906,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4909,14 +4915,11 @@
     <xf numFmtId="49" fontId="10" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4924,7 +4927,7 @@
     <xf numFmtId="177" fontId="12" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4956,13 +4959,54 @@
     <cellStyle name="常规 3" xfId="2" xr:uid="{943AF081-FC7B-4297-9F9D-14246B980CB4}"/>
     <cellStyle name="常规 4" xfId="3" xr:uid="{6A4EF323-2DB5-43F4-8F7C-802CED3DA6D0}"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -4985,9 +5029,33 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5015,49 +5083,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5106,113 +5132,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -5242,245 +5161,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5775,980 +5455,980 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.75" style="41"/>
+    <col min="1" max="1" width="33" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.75" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
         <v>1465</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="38" t="s">
         <v>1464</v>
       </c>
-      <c r="C1" s="45" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="C1" s="42" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="42" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="42" t="s">
         <v>1472</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
-        <v>1473</v>
-      </c>
-      <c r="B3" s="41">
+      <c r="B3" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="41" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="41" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="41" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="41" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="41">
+      <c r="B18" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="41" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="41">
+      <c r="B20" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="41" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="B21" s="41">
+      <c r="B21" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="41" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="B22" s="41">
+      <c r="B22" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="41" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="B23" s="41">
+      <c r="B23" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="41" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="B24" s="41">
+      <c r="B24" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="41" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="B25" s="41">
+      <c r="B25" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="41" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="41">
+      <c r="B26" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="41" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="B27" s="41">
+      <c r="B27" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="41" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="B28" s="41">
+      <c r="B28" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="41" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="41" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="41" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="B31" s="41">
+      <c r="B31" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="41" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="B32" s="41">
+      <c r="B32" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="41" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="B33" s="41">
+      <c r="B33" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="41" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="B34" s="41">
+      <c r="B34" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="41" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="B35" s="41">
+      <c r="B35" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="41" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="B36" s="41">
+      <c r="B36" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="41" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="B37" s="41">
+      <c r="B37" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="41" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="B38" s="41">
+      <c r="B38" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="41" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="B39" s="41">
+      <c r="B39" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="41" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="41">
+      <c r="B40" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="41" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="B41" s="41">
+      <c r="B41" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="41" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="B42" s="41">
+      <c r="B42" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="41" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="B43" s="41">
+      <c r="B43" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="41" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="B44" s="41">
+      <c r="B44" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="41" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="B45" s="41">
+      <c r="B45" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="41" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="B46" s="41">
+      <c r="B46" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="41" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="B47" s="41">
+      <c r="B47" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="41" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="41">
+      <c r="B48" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="41" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="B49" s="41">
+      <c r="B49" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="41" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="B50" s="41">
+      <c r="B50" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="41" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="B51" s="41">
+      <c r="B51" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="41" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="B52" s="41">
+      <c r="B52" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="41" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="B53" s="41">
+      <c r="B53" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="41" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="B54" s="41">
+      <c r="B54" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="41" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="B55" s="41">
+      <c r="B55" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="41" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="B56" s="41">
+      <c r="B56" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="41" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="B57" s="41">
+      <c r="B57" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="41" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="B58" s="41">
+      <c r="B58" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="41" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="B59" s="41">
+      <c r="B59" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="41" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="B60" s="41">
+      <c r="B60" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="41" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="B61" s="41">
+      <c r="B61" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="41" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="B62" s="41">
+      <c r="B62" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="41" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="B63" s="41">
+      <c r="B63" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="41" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="B64" s="41">
+      <c r="B64" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="41" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="B65" s="41">
+      <c r="B65" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="41" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="B66" s="41">
+      <c r="B66" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="41" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="B67" s="41">
+      <c r="B67" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="41" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="B68" s="41">
+      <c r="B68" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="41" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="B69" s="41">
+      <c r="B69" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="41" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="B70" s="41">
+      <c r="B70" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="41" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="B71" s="41">
+      <c r="B71" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="41" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="B72" s="41">
+      <c r="B72" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="41" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="B73" s="41">
+      <c r="B73" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="41" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="38" t="s">
         <v>1463</v>
       </c>
-      <c r="B74" s="41">
+      <c r="B74" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="41" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="B75" s="41">
+      <c r="B75" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="41" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="B76" s="41">
+      <c r="B76" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="41" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="B77" s="41">
+      <c r="B77" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="41" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="B78" s="41">
+      <c r="B78" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="41" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="B79" s="41">
+      <c r="B79" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="41" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="B80" s="41">
+      <c r="B80" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="41" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="B81" s="41">
+      <c r="B81" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="41" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="B82" s="41">
+      <c r="B82" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="41" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="B83" s="41">
+      <c r="B83" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="41" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="B84" s="41">
+      <c r="B84" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="41" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="B85" s="41">
+      <c r="B85" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="41" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="B86" s="41">
+      <c r="B86" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="41" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="B87" s="41">
+      <c r="B87" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="41" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="B88" s="41">
+      <c r="B88" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="41" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="B89" s="41">
+      <c r="B89" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="41" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="B90" s="41">
+      <c r="B90" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="41" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="B91" s="41">
+      <c r="B91" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="41" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="B92" s="41">
+      <c r="B92" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="41" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="B93" s="41">
+      <c r="B93" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="41" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="B94" s="41">
+      <c r="B94" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="41" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="B95" s="41">
+      <c r="B95" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="41" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="B96" s="41">
+      <c r="B96" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="41" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="B97" s="41">
+      <c r="B97" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="41" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="B98" s="41">
+      <c r="B98" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="41" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="B99" s="41">
+      <c r="B99" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="41" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="B100" s="41">
+      <c r="B100" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="41" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="B101" s="41">
+      <c r="B101" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="41" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="B102" s="41">
+      <c r="B102" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="41" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="B103" s="41">
+      <c r="B103" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="41" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="B104" s="41">
+      <c r="B104" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="41" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="B105" s="41">
+      <c r="B105" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="41" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="B106" s="41">
+      <c r="B106" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="41" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="B107" s="41">
+      <c r="B107" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="41" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="B108" s="41">
+      <c r="B108" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="41" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="B109" s="41">
+      <c r="B109" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="41" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="B110" s="41">
+      <c r="B110" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="41" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="B111" s="41">
+      <c r="B111" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="41" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="B112" s="41">
+      <c r="B112" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="41" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="B113" s="41">
+      <c r="B113" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="41" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="B114" s="41">
+      <c r="B114" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="41" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="B115" s="41">
+      <c r="B115" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="41" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="B116" s="41">
+      <c r="B116" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="41" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="B117" s="41">
+      <c r="B117" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="41" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="B118" s="41">
+      <c r="B118" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="41" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="B119" s="41">
+      <c r="B119" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="41" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="38" t="s">
         <v>387</v>
       </c>
-      <c r="B120" s="41">
+      <c r="B120" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="41" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="38" t="s">
         <v>437</v>
       </c>
-      <c r="B121" s="41">
+      <c r="B121" s="38">
         <v>1</v>
       </c>
     </row>
@@ -6763,184 +6443,190 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E051ADCA-711D-4661-996E-F67A2551611D}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.75" style="43"/>
+    <col min="1" max="16384" width="8.75" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" s="40" t="s">
         <v>1461</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="40" t="s">
         <v>1460</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="48" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>1459</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>1458</v>
+      </c>
+      <c r="R1" s="40" t="s">
+        <v>1449</v>
+      </c>
+      <c r="S1" s="40" t="s">
+        <v>1448</v>
+      </c>
+      <c r="T1" s="40" t="s">
+        <v>1447</v>
+      </c>
+      <c r="U1" s="40" t="s">
+        <v>1446</v>
+      </c>
+      <c r="V1" s="40" t="s">
+        <v>1445</v>
+      </c>
+      <c r="W1" s="40" t="s">
+        <v>1444</v>
+      </c>
+      <c r="X1" s="40" t="s">
+        <v>1443</v>
+      </c>
+      <c r="Y1" s="40" t="s">
+        <v>1442</v>
+      </c>
+      <c r="Z1" s="40" t="s">
+        <v>1441</v>
+      </c>
+      <c r="AA1" s="40" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" s="40" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>1437</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>1436</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>1435</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>1434</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>1433</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>1432</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>1431</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>1430</v>
+      </c>
+      <c r="N2" s="41" t="s">
+        <v>1429</v>
+      </c>
+      <c r="O2" s="41" t="s">
+        <v>1428</v>
+      </c>
+      <c r="P2" s="41" t="s">
+        <v>1427</v>
+      </c>
+      <c r="Q2" s="40" t="s">
+        <v>1426</v>
+      </c>
+      <c r="R2" s="40" t="s">
+        <v>1417</v>
+      </c>
+      <c r="S2" s="40" t="s">
+        <v>1416</v>
+      </c>
+      <c r="T2" s="40" t="s">
+        <v>1415</v>
+      </c>
+      <c r="U2" s="40" t="s">
+        <v>1414</v>
+      </c>
+      <c r="V2" s="40" t="s">
+        <v>1413</v>
+      </c>
+      <c r="W2" s="40" t="s">
+        <v>1412</v>
+      </c>
+      <c r="X2" s="40" t="s">
+        <v>1411</v>
+      </c>
+      <c r="Y2" s="40" t="s">
+        <v>1410</v>
+      </c>
+      <c r="Z2" s="40" t="s">
+        <v>1409</v>
+      </c>
+      <c r="AA2" s="43" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="48" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E3" s="48" t="s">
         <v>1483</v>
       </c>
-      <c r="F1" s="43" t="s">
-        <v>1459</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>1458</v>
-      </c>
-      <c r="R1" s="43" t="s">
-        <v>1449</v>
-      </c>
-      <c r="S1" s="43" t="s">
-        <v>1448</v>
-      </c>
-      <c r="T1" s="43" t="s">
-        <v>1447</v>
-      </c>
-      <c r="U1" s="43" t="s">
-        <v>1446</v>
-      </c>
-      <c r="V1" s="43" t="s">
-        <v>1445</v>
-      </c>
-      <c r="W1" s="43" t="s">
-        <v>1444</v>
-      </c>
-      <c r="X1" s="43" t="s">
-        <v>1443</v>
-      </c>
-      <c r="Y1" s="43" t="s">
-        <v>1442</v>
-      </c>
-      <c r="Z1" s="43" t="s">
-        <v>1441</v>
-      </c>
-      <c r="AA1" s="43" t="s">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
-        <v>1439</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>1478</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>1479</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>1438</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>1437</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>1436</v>
-      </c>
-      <c r="H2" s="44" t="s">
-        <v>1435</v>
-      </c>
-      <c r="I2" s="44" t="s">
-        <v>1434</v>
-      </c>
-      <c r="J2" s="44" t="s">
-        <v>1433</v>
-      </c>
-      <c r="K2" s="44" t="s">
-        <v>1432</v>
-      </c>
-      <c r="L2" s="44" t="s">
-        <v>1431</v>
-      </c>
-      <c r="M2" s="44" t="s">
-        <v>1430</v>
-      </c>
-      <c r="N2" s="44" t="s">
-        <v>1429</v>
-      </c>
-      <c r="O2" s="44" t="s">
-        <v>1428</v>
-      </c>
-      <c r="P2" s="44" t="s">
-        <v>1427</v>
-      </c>
-      <c r="Q2" s="43" t="s">
-        <v>1426</v>
-      </c>
-      <c r="R2" s="43" t="s">
-        <v>1417</v>
-      </c>
-      <c r="S2" s="43" t="s">
-        <v>1416</v>
-      </c>
-      <c r="T2" s="43" t="s">
-        <v>1415</v>
-      </c>
-      <c r="U2" s="43" t="s">
-        <v>1414</v>
-      </c>
-      <c r="V2" s="43" t="s">
-        <v>1413</v>
-      </c>
-      <c r="W2" s="43" t="s">
-        <v>1412</v>
-      </c>
-      <c r="X2" s="43" t="s">
-        <v>1411</v>
-      </c>
-      <c r="Y2" s="43" t="s">
-        <v>1410</v>
-      </c>
-      <c r="Z2" s="43" t="s">
-        <v>1409</v>
-      </c>
-      <c r="AA2" s="46" t="s">
+      <c r="H3" s="40" t="s">
+        <v>1406</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>1468</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>1467</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>1466</v>
+      </c>
+      <c r="N3" s="44" t="s">
+        <v>1474</v>
+      </c>
+      <c r="R3" s="40">
+        <v>2</v>
+      </c>
+      <c r="S3" s="46" t="s">
+        <v>1481</v>
+      </c>
+      <c r="T3" s="40" t="s">
+        <v>1403</v>
+      </c>
+      <c r="U3" s="48" t="s">
+        <v>1486</v>
+      </c>
+      <c r="V3" s="48" t="s">
+        <v>1485</v>
+      </c>
+      <c r="AA3" s="44" t="s">
         <v>1476</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
-        <v>1470</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>1481</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>1484</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>1406</v>
-      </c>
-      <c r="I3" s="49" t="s">
-        <v>1468</v>
-      </c>
-      <c r="J3" s="49" t="s">
-        <v>1467</v>
-      </c>
-      <c r="K3" s="43" t="s">
-        <v>1466</v>
-      </c>
-      <c r="N3" s="47" t="s">
-        <v>1475</v>
-      </c>
-      <c r="R3" s="43">
-        <v>2</v>
-      </c>
-      <c r="S3" s="49" t="s">
-        <v>1482</v>
-      </c>
-      <c r="T3" s="43" t="s">
-        <v>1403</v>
-      </c>
-      <c r="AA3" s="47" t="s">
-        <v>1477</v>
       </c>
     </row>
   </sheetData>
@@ -6958,199 +6644,199 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="8.75" style="41"/>
-    <col min="5" max="5" width="11.08203125" style="41" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="41"/>
+    <col min="1" max="4" width="8.75" style="38"/>
+    <col min="5" max="5" width="11.125" style="38" customWidth="1"/>
+    <col min="6" max="16384" width="8.75" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
         <v>1461</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="38" t="s">
         <v>1460</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="38" t="s">
         <v>1459</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="38" t="s">
         <v>1458</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="O1" s="38" t="s">
         <v>1457</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="P1" s="38" t="s">
         <v>1456</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="Q1" s="38" t="s">
         <v>1455</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="R1" s="38" t="s">
         <v>1454</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="S1" s="38" t="s">
         <v>1453</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="T1" s="38" t="s">
         <v>1452</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="U1" s="38" t="s">
         <v>1451</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="V1" s="38" t="s">
         <v>1450</v>
       </c>
-      <c r="W1" s="41" t="s">
+      <c r="W1" s="38" t="s">
         <v>1449</v>
       </c>
-      <c r="X1" s="41" t="s">
+      <c r="X1" s="38" t="s">
         <v>1448</v>
       </c>
-      <c r="Y1" s="41" t="s">
+      <c r="Y1" s="38" t="s">
         <v>1447</v>
       </c>
-      <c r="Z1" s="41" t="s">
+      <c r="Z1" s="38" t="s">
         <v>1446</v>
       </c>
-      <c r="AA1" s="41" t="s">
+      <c r="AA1" s="38" t="s">
         <v>1445</v>
       </c>
-      <c r="AB1" s="41" t="s">
+      <c r="AB1" s="38" t="s">
         <v>1444</v>
       </c>
-      <c r="AC1" s="41" t="s">
+      <c r="AC1" s="38" t="s">
         <v>1443</v>
       </c>
-      <c r="AD1" s="41" t="s">
+      <c r="AD1" s="38" t="s">
         <v>1442</v>
       </c>
-      <c r="AE1" s="41" t="s">
+      <c r="AE1" s="38" t="s">
         <v>1441</v>
       </c>
-      <c r="AF1" s="41" t="s">
+      <c r="AF1" s="38" t="s">
         <v>1440</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A2" s="38" t="s">
         <v>1439</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="38" t="s">
         <v>1438</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="38" t="s">
         <v>1437</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="38" t="s">
         <v>1436</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="39" t="s">
         <v>1435</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="39" t="s">
         <v>1434</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="39" t="s">
         <v>1433</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="39" t="s">
         <v>1432</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="39" t="s">
         <v>1431</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="39" t="s">
         <v>1430</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="39" t="s">
         <v>1429</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="39" t="s">
         <v>1428</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="39" t="s">
         <v>1427</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="38" t="s">
         <v>1426</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="39" t="s">
         <v>1425</v>
       </c>
-      <c r="P2" s="42" t="s">
+      <c r="P2" s="39" t="s">
         <v>1424</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="39" t="s">
         <v>1423</v>
       </c>
-      <c r="R2" s="42" t="s">
+      <c r="R2" s="39" t="s">
         <v>1422</v>
       </c>
-      <c r="S2" s="42" t="s">
+      <c r="S2" s="39" t="s">
         <v>1421</v>
       </c>
-      <c r="T2" s="42" t="s">
+      <c r="T2" s="39" t="s">
         <v>1420</v>
       </c>
-      <c r="U2" s="42" t="s">
+      <c r="U2" s="39" t="s">
         <v>1419</v>
       </c>
-      <c r="V2" s="42" t="s">
+      <c r="V2" s="39" t="s">
         <v>1418</v>
       </c>
-      <c r="W2" s="41" t="s">
+      <c r="W2" s="38" t="s">
         <v>1417</v>
       </c>
-      <c r="X2" s="41" t="s">
+      <c r="X2" s="38" t="s">
         <v>1416</v>
       </c>
-      <c r="Y2" s="41" t="s">
+      <c r="Y2" s="38" t="s">
         <v>1415</v>
       </c>
-      <c r="Z2" s="41" t="s">
+      <c r="Z2" s="38" t="s">
         <v>1414</v>
       </c>
-      <c r="AA2" s="41" t="s">
+      <c r="AA2" s="38" t="s">
         <v>1413</v>
       </c>
-      <c r="AB2" s="41" t="s">
+      <c r="AB2" s="38" t="s">
         <v>1412</v>
       </c>
-      <c r="AC2" s="41" t="s">
+      <c r="AC2" s="38" t="s">
         <v>1411</v>
       </c>
-      <c r="AD2" s="41" t="s">
+      <c r="AD2" s="38" t="s">
         <v>1410</v>
       </c>
-      <c r="AE2" s="41" t="s">
+      <c r="AE2" s="38" t="s">
         <v>1409</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A3" s="38" t="s">
         <v>1408</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="38" t="s">
         <v>1407</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="38" t="s">
         <v>1406</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="47" t="s">
         <v>1405</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="38" t="s">
         <v>1404</v>
       </c>
-      <c r="W3" s="41">
+      <c r="W3" s="38">
         <v>2</v>
       </c>
-      <c r="X3" s="50" t="s">
-        <v>1482</v>
-      </c>
-      <c r="Y3" s="41" t="s">
+      <c r="X3" s="47" t="s">
+        <v>1481</v>
+      </c>
+      <c r="Y3" s="38" t="s">
         <v>1403</v>
       </c>
     </row>
@@ -7169,199 +6855,199 @@
       <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="8.75" style="41"/>
-    <col min="5" max="5" width="11.08203125" style="41" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="41"/>
+    <col min="1" max="4" width="8.75" style="38"/>
+    <col min="5" max="5" width="11.125" style="38" customWidth="1"/>
+    <col min="6" max="16384" width="8.75" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
         <v>1461</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="38" t="s">
         <v>1460</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="38" t="s">
         <v>1459</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="38" t="s">
         <v>1458</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="O1" s="38" t="s">
         <v>1457</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="P1" s="38" t="s">
         <v>1456</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="Q1" s="38" t="s">
         <v>1455</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="R1" s="38" t="s">
         <v>1454</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="S1" s="38" t="s">
         <v>1453</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="T1" s="38" t="s">
         <v>1452</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="U1" s="38" t="s">
         <v>1451</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="V1" s="38" t="s">
         <v>1450</v>
       </c>
-      <c r="W1" s="41" t="s">
+      <c r="W1" s="38" t="s">
         <v>1449</v>
       </c>
-      <c r="X1" s="41" t="s">
+      <c r="X1" s="38" t="s">
         <v>1448</v>
       </c>
-      <c r="Y1" s="41" t="s">
+      <c r="Y1" s="38" t="s">
         <v>1447</v>
       </c>
-      <c r="Z1" s="41" t="s">
+      <c r="Z1" s="38" t="s">
         <v>1446</v>
       </c>
-      <c r="AA1" s="41" t="s">
+      <c r="AA1" s="38" t="s">
         <v>1445</v>
       </c>
-      <c r="AB1" s="41" t="s">
+      <c r="AB1" s="38" t="s">
         <v>1444</v>
       </c>
-      <c r="AC1" s="41" t="s">
+      <c r="AC1" s="38" t="s">
         <v>1443</v>
       </c>
-      <c r="AD1" s="41" t="s">
+      <c r="AD1" s="38" t="s">
         <v>1442</v>
       </c>
-      <c r="AE1" s="41" t="s">
+      <c r="AE1" s="38" t="s">
         <v>1441</v>
       </c>
-      <c r="AF1" s="41" t="s">
+      <c r="AF1" s="38" t="s">
         <v>1440</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A2" s="38" t="s">
         <v>1439</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="38" t="s">
         <v>1438</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="38" t="s">
         <v>1437</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="38" t="s">
         <v>1436</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="39" t="s">
         <v>1435</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="39" t="s">
         <v>1434</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="39" t="s">
         <v>1433</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="39" t="s">
         <v>1432</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="39" t="s">
         <v>1431</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="39" t="s">
         <v>1430</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="39" t="s">
         <v>1429</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="39" t="s">
         <v>1428</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="39" t="s">
         <v>1427</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="38" t="s">
         <v>1426</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="39" t="s">
         <v>1425</v>
       </c>
-      <c r="P2" s="42" t="s">
+      <c r="P2" s="39" t="s">
         <v>1424</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="39" t="s">
         <v>1423</v>
       </c>
-      <c r="R2" s="42" t="s">
+      <c r="R2" s="39" t="s">
         <v>1422</v>
       </c>
-      <c r="S2" s="42" t="s">
+      <c r="S2" s="39" t="s">
         <v>1421</v>
       </c>
-      <c r="T2" s="42" t="s">
+      <c r="T2" s="39" t="s">
         <v>1420</v>
       </c>
-      <c r="U2" s="42" t="s">
+      <c r="U2" s="39" t="s">
         <v>1419</v>
       </c>
-      <c r="V2" s="42" t="s">
+      <c r="V2" s="39" t="s">
         <v>1418</v>
       </c>
-      <c r="W2" s="41" t="s">
+      <c r="W2" s="38" t="s">
         <v>1417</v>
       </c>
-      <c r="X2" s="41" t="s">
+      <c r="X2" s="38" t="s">
         <v>1416</v>
       </c>
-      <c r="Y2" s="41" t="s">
+      <c r="Y2" s="38" t="s">
         <v>1415</v>
       </c>
-      <c r="Z2" s="41" t="s">
+      <c r="Z2" s="38" t="s">
         <v>1414</v>
       </c>
-      <c r="AA2" s="41" t="s">
+      <c r="AA2" s="38" t="s">
         <v>1413</v>
       </c>
-      <c r="AB2" s="41" t="s">
+      <c r="AB2" s="38" t="s">
         <v>1412</v>
       </c>
-      <c r="AC2" s="41" t="s">
+      <c r="AC2" s="38" t="s">
         <v>1411</v>
       </c>
-      <c r="AD2" s="41" t="s">
+      <c r="AD2" s="38" t="s">
         <v>1410</v>
       </c>
-      <c r="AE2" s="41" t="s">
+      <c r="AE2" s="38" t="s">
         <v>1409</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A3" s="38" t="s">
         <v>1462</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="38" t="s">
         <v>1407</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="38" t="s">
         <v>1406</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="47" t="s">
         <v>1405</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="38" t="s">
         <v>1404</v>
       </c>
-      <c r="W3" s="41">
+      <c r="W3" s="38">
         <v>2</v>
       </c>
-      <c r="X3" s="50" t="s">
-        <v>1482</v>
-      </c>
-      <c r="Y3" s="41" t="s">
+      <c r="X3" s="47" t="s">
+        <v>1481</v>
+      </c>
+      <c r="Y3" s="38" t="s">
         <v>1403</v>
       </c>
     </row>
@@ -7376,1564 +7062,1385 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.1640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="17.08203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="22.08203125" customWidth="1"/>
-    <col min="6" max="6" width="51.08203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="5.08203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="5.9140625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" customWidth="1"/>
-    <col min="11" max="22" width="5.33203125" customWidth="1"/>
-    <col min="23" max="23" width="10.08203125" customWidth="1"/>
-    <col min="24" max="24" width="40.33203125" customWidth="1"/>
-    <col min="25" max="25" width="20.08203125" style="9" customWidth="1"/>
-    <col min="26" max="26" width="13.83203125" customWidth="1"/>
-    <col min="27" max="27" width="29.83203125" customWidth="1"/>
-    <col min="28" max="28" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="31.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="33.125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="22.125" customWidth="1"/>
+    <col min="6" max="6" width="51.125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="5.875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="5.375" customWidth="1"/>
+    <col min="10" max="10" width="7.375" customWidth="1"/>
+    <col min="11" max="22" width="5.375" customWidth="1"/>
+    <col min="23" max="23" width="10.125" customWidth="1"/>
+    <col min="24" max="24" width="40.375" customWidth="1"/>
+    <col min="25" max="25" width="20.125" style="8" customWidth="1"/>
+    <col min="26" max="26" width="13.875" customWidth="1"/>
+    <col min="27" max="27" width="29.875" customWidth="1"/>
+    <col min="28" max="28" width="25.125" customWidth="1"/>
     <col min="29" max="29" width="23" customWidth="1"/>
-    <col min="30" max="30" width="27.08203125" customWidth="1"/>
-    <col min="31" max="31" width="29.6640625" customWidth="1"/>
-    <col min="32" max="32" width="28.4140625" customWidth="1"/>
-    <col min="33" max="33" width="19.83203125" customWidth="1"/>
-    <col min="34" max="34" width="16.33203125" customWidth="1"/>
-    <col min="35" max="37" width="19.83203125" customWidth="1"/>
-    <col min="38" max="38" width="28.6640625" customWidth="1"/>
-    <col min="39" max="39" width="10.33203125" style="8" customWidth="1"/>
-    <col min="40" max="40" width="6.83203125" style="27" customWidth="1"/>
-    <col min="41" max="41" width="6.83203125" style="8" customWidth="1"/>
-    <col min="42" max="42" width="6.83203125" style="39" customWidth="1"/>
-    <col min="43" max="43" width="21" style="8" customWidth="1"/>
-    <col min="44" max="44" width="20.33203125" style="8" customWidth="1"/>
-    <col min="45" max="45" width="30.83203125" style="8" customWidth="1"/>
-    <col min="46" max="53" width="6.83203125" style="8" customWidth="1"/>
-    <col min="54" max="54" width="5.08203125" style="8" customWidth="1"/>
-    <col min="55" max="55" width="5.9140625" style="8" customWidth="1"/>
-    <col min="56" max="58" width="6.83203125" style="8" customWidth="1"/>
-    <col min="59" max="59" width="22.9140625" style="8" customWidth="1"/>
-    <col min="60" max="60" width="6.83203125" style="8" customWidth="1"/>
-    <col min="61" max="61" width="24.08203125" customWidth="1"/>
-    <col min="62" max="62" width="12.08203125" customWidth="1"/>
-    <col min="63" max="63" width="20.83203125" customWidth="1"/>
+    <col min="30" max="30" width="27.125" customWidth="1"/>
+    <col min="31" max="31" width="29.625" customWidth="1"/>
+    <col min="32" max="32" width="28.375" customWidth="1"/>
+    <col min="33" max="33" width="19.875" customWidth="1"/>
+    <col min="34" max="34" width="16.375" customWidth="1"/>
+    <col min="35" max="37" width="19.875" customWidth="1"/>
+    <col min="38" max="38" width="28.625" customWidth="1"/>
+    <col min="39" max="39" width="10.375" style="7" customWidth="1"/>
+    <col min="40" max="40" width="6.875" style="26" customWidth="1"/>
+    <col min="41" max="41" width="6.875" style="7" customWidth="1"/>
+    <col min="42" max="42" width="6.875" style="36" customWidth="1"/>
+    <col min="43" max="43" width="21" style="7" customWidth="1"/>
+    <col min="44" max="44" width="20.375" style="7" customWidth="1"/>
+    <col min="45" max="45" width="30.875" style="7" customWidth="1"/>
+    <col min="46" max="53" width="6.875" style="7" customWidth="1"/>
+    <col min="54" max="54" width="5.125" style="7" customWidth="1"/>
+    <col min="55" max="55" width="5.875" style="7" customWidth="1"/>
+    <col min="56" max="58" width="6.875" style="7" customWidth="1"/>
+    <col min="59" max="59" width="22.875" style="7" customWidth="1"/>
+    <col min="60" max="60" width="6.875" style="7" customWidth="1"/>
+    <col min="61" max="61" width="24.125" customWidth="1"/>
+    <col min="62" max="62" width="12.125" customWidth="1"/>
+    <col min="63" max="63" width="20.875" customWidth="1"/>
     <col min="64" max="64" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:64" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18" t="s">
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="X1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="Y1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="Z1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21" t="s">
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="21" t="s">
+      <c r="AH1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AI1" s="21" t="s">
+      <c r="AI1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AJ1" s="21" t="s">
+      <c r="AJ1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AK1" s="21" t="s">
+      <c r="AK1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AL1" s="21" t="s">
+      <c r="AL1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AM1" s="21" t="s">
+      <c r="AM1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="AN1" s="31" t="s">
+      <c r="AN1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="AO1" s="12" t="s">
+      <c r="AO1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AP1" s="36" t="s">
+      <c r="AP1" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="AQ1" s="22" t="s">
+      <c r="AQ1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AR1" s="12" t="s">
+      <c r="AR1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AS1" s="11" t="s">
+      <c r="AS1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AT1" s="12" t="s">
+      <c r="AT1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AU1" s="12" t="s">
+      <c r="AU1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AV1" s="12" t="s">
+      <c r="AV1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AW1" s="12" t="s">
+      <c r="AW1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AX1" s="12" t="s">
+      <c r="AX1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AY1" s="12" t="s">
+      <c r="AY1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AZ1" s="12" t="s">
+      <c r="AZ1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="BA1" s="12" t="s">
+      <c r="BA1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="BB1" s="11" t="s">
+      <c r="BB1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="BC1" s="11" t="s">
+      <c r="BC1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="BD1" s="11" t="s">
+      <c r="BD1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="BE1" s="24" t="s">
+      <c r="BE1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="BF1" s="11" t="s">
+      <c r="BF1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="BG1" s="11" t="s">
+      <c r="BG1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="BH1" s="11" t="s">
+      <c r="BH1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="BI1" s="25" t="s">
+      <c r="BI1" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="BJ1" s="25" t="s">
+      <c r="BJ1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="BK1" s="34" t="s">
+      <c r="BK1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BL1" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:64" s="3" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:64" s="2" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>1401</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="18">
+      <c r="K2" s="17">
         <v>1</v>
       </c>
-      <c r="L2" s="18">
+      <c r="L2" s="17">
         <v>2</v>
       </c>
-      <c r="M2" s="18">
+      <c r="M2" s="17">
         <v>3</v>
       </c>
-      <c r="N2" s="18">
+      <c r="N2" s="17">
         <v>4</v>
       </c>
-      <c r="O2" s="18">
+      <c r="O2" s="17">
         <v>5</v>
       </c>
-      <c r="P2" s="18">
+      <c r="P2" s="17">
         <v>6</v>
       </c>
-      <c r="Q2" s="18">
+      <c r="Q2" s="17">
         <v>7</v>
       </c>
-      <c r="R2" s="18">
+      <c r="R2" s="17">
         <v>8</v>
       </c>
-      <c r="S2" s="18">
+      <c r="S2" s="17">
         <v>9</v>
       </c>
-      <c r="T2" s="18">
+      <c r="T2" s="17">
         <v>10</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="U2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="V2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="W2" s="18" t="s">
+      <c r="W2" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="X2" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="Y2" s="19" t="s">
+      <c r="Y2" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AA2" s="21" t="s">
+      <c r="AA2" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AB2" s="21" t="s">
+      <c r="AB2" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="AC2" s="21" t="s">
+      <c r="AC2" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="AD2" s="21" t="s">
+      <c r="AD2" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="AE2" s="21" t="s">
+      <c r="AE2" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="AF2" s="21" t="s">
+      <c r="AF2" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21" t="s">
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="AN2" s="31" t="s">
+      <c r="AN2" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AO2" s="12" t="s">
+      <c r="AO2" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AP2" s="36" t="s">
+      <c r="AP2" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="AQ2" s="22" t="s">
+      <c r="AQ2" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="AR2" s="12" t="s">
+      <c r="AR2" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="AS2" s="11" t="s">
+      <c r="AS2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AT2" s="12" t="s">
+      <c r="AT2" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AU2" s="23" t="s">
+      <c r="AU2" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="AV2" s="12" t="s">
+      <c r="AV2" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="AW2" s="12" t="s">
+      <c r="AW2" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="AX2" s="12" t="s">
+      <c r="AX2" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AY2" s="12" t="s">
+      <c r="AY2" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="AZ2" s="40" t="s">
+      <c r="AZ2" s="37" t="s">
         <v>1399</v>
       </c>
-      <c r="BA2" s="40" t="s">
+      <c r="BA2" s="37" t="s">
         <v>1400</v>
       </c>
-      <c r="BB2" s="11" t="s">
+      <c r="BB2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="BC2" s="11" t="s">
+      <c r="BC2" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="BD2" s="11" t="s">
+      <c r="BD2" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="BE2" s="24" t="s">
+      <c r="BE2" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="BF2" s="11" t="s">
+      <c r="BF2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="BG2" s="11" t="s">
+      <c r="BG2" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="BH2" s="11" t="s">
+      <c r="BH2" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="BI2" s="25" t="s">
+      <c r="BI2" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="BJ2" s="25" t="s">
+      <c r="BJ2" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="BK2" s="34" t="s">
+      <c r="BK2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="BL2" s="3" t="s">
+      <c r="BL2" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:64" s="4" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="1:64" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="14" t="str">
+      <c r="C3" s="13" t="str">
         <f>SUBSTITUTE(B3,"npc_dota_hero_","")</f>
         <v>earthshaker</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>1</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="15" t="str">
+      <c r="F3" s="14" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$C3,__OriginalData!$A$2:$W$122,2,FALSE)</f>
         <v>models/heroes/earthshaker/earthshaker.vmdl</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15">
+      <c r="G3" s="13"/>
+      <c r="H3" s="14">
         <f>VLOOKUP("npc_dota_hero_"&amp;$C3,__OriginalData!$A$2:$W$122,3,FALSE)</f>
         <v>0.93000000715256004</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15" t="str">
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$C3,__OriginalData!$A$2:$W$122,4,FALSE)</f>
         <v>Hero_Earthshaker</v>
       </c>
-      <c r="X3" s="15" t="str">
+      <c r="X3" s="14" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$C3,__OriginalData!$A$2:$W$122,5,FALSE)</f>
         <v>particles/units/heroes/hero_earthshaker</v>
       </c>
-      <c r="Y3" s="20" t="str">
+      <c r="Y3" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$C3,__OriginalData!$A$2:$W$122,6,FALSE)</f>
         <v>soundevents/game_sounds_heroes/game_sounds_earthshaker.vsndevts</v>
       </c>
-      <c r="Z3" s="20" t="str">
+      <c r="Z3" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$C3,__OriginalData!$A$2:$W$122,7,FALSE)</f>
         <v>soundevents/voscripts/game_sounds_vo_earthshaker.vsndevts</v>
       </c>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20" t="str">
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$C3,__OriginalData!$A$2:$W$122,8,FALSE)</f>
         <v>earthshaker_fissure</v>
       </c>
-      <c r="AH3" s="20" t="str">
+      <c r="AH3" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$C3,__OriginalData!$A$2:$W$122,9,FALSE)</f>
         <v>earthshaker_enchant_totem</v>
       </c>
-      <c r="AI3" s="20" t="str">
+      <c r="AI3" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$C3,__OriginalData!$A$2:$W$122,10,FALSE)</f>
         <v>earthshaker_aftershock</v>
       </c>
-      <c r="AJ3" s="20" t="str">
+      <c r="AJ3" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$C3,__OriginalData!$A$2:$W$122,11,FALSE)</f>
         <v>generic_hidden</v>
       </c>
-      <c r="AK3" s="20" t="str">
+      <c r="AK3" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$C3,__OriginalData!$A$2:$W$122,12,FALSE)</f>
         <v>generic_hidden</v>
       </c>
-      <c r="AL3" s="20" t="str">
+      <c r="AL3" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$C3,__OriginalData!$A$2:$W$122,13,FALSE)</f>
         <v>earthshaker_echo_slam</v>
       </c>
-      <c r="AM3" s="15">
+      <c r="AM3" s="14">
         <v>1</v>
       </c>
-      <c r="AN3" s="32">
+      <c r="AN3" s="30">
         <v>200</v>
       </c>
-      <c r="AO3" s="20">
+      <c r="AO3" s="19">
         <f>VLOOKUP("npc_dota_hero_"&amp;$C3,__OriginalData!$A$2:$W$122,15,FALSE)</f>
         <v>310</v>
       </c>
-      <c r="AP3" s="37">
+      <c r="AP3" s="34">
         <f>VLOOKUP("npc_dota_hero_"&amp;$C3,__OriginalData!$A$2:$W$122,16,FALSE)</f>
         <v>0.89999997615813998</v>
       </c>
-      <c r="AQ3" s="20" t="str">
+      <c r="AQ3" s="19" t="str">
         <f>IF(VLOOKUP("npc_dota_hero_"&amp;$C3,__OriginalData!$A$2:$W$122,17,FALSE)="nil","",VLOOKUP("npc_dota_hero_"&amp;$C3,__OriginalData!$A$2:$W$122,17,FALSE))</f>
         <v/>
       </c>
-      <c r="AR3" s="20" t="s">
+      <c r="AR3" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="AS3" s="20" t="str">
+      <c r="AS3" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$C3,__OriginalData!$A$2:$W$122,19,FALSE)</f>
         <v>DOTA_UNIT_CAP_MELEE_ATTACK</v>
       </c>
-      <c r="AT3" s="15">
+      <c r="AT3" s="14">
         <v>5</v>
       </c>
-      <c r="AU3" s="15">
+      <c r="AU3" s="14">
         <v>0</v>
       </c>
-      <c r="AV3" s="15">
+      <c r="AV3" s="14">
         <v>500</v>
       </c>
-      <c r="AW3" s="15">
+      <c r="AW3" s="14">
         <v>0</v>
       </c>
-      <c r="AX3" s="15">
+      <c r="AX3" s="14">
         <v>100</v>
       </c>
-      <c r="AY3" s="15">
+      <c r="AY3" s="14">
         <v>0</v>
       </c>
-      <c r="AZ3" s="15">
+      <c r="AZ3" s="14">
         <v>0</v>
       </c>
-      <c r="BA3" s="15">
+      <c r="BA3" s="14">
         <v>0</v>
       </c>
-      <c r="BB3" s="15">
+      <c r="BB3" s="14">
         <v>50</v>
       </c>
-      <c r="BC3" s="15">
+      <c r="BC3" s="14">
         <v>60</v>
       </c>
-      <c r="BD3" s="20">
+      <c r="BD3" s="19">
         <v>1.5</v>
       </c>
-      <c r="BE3" s="20">
+      <c r="BE3" s="19">
         <f>VLOOKUP("npc_dota_hero_"&amp;$C3,__OriginalData!$A$2:$W$122,20,FALSE)</f>
         <v>0.46700000762938998</v>
       </c>
-      <c r="BF3" s="20">
+      <c r="BF3" s="19">
         <f>VLOOKUP("npc_dota_hero_"&amp;$C3,__OriginalData!$A$2:$W$122,21,FALSE)</f>
         <v>150</v>
       </c>
-      <c r="BG3" s="20" t="s">
+      <c r="BG3" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="BH3" s="15">
+      <c r="BH3" s="14">
         <v>70</v>
       </c>
-      <c r="BI3" s="20" t="str">
+      <c r="BI3" s="19" t="str">
         <f>IF(VLOOKUP("npc_dota_hero_"&amp;$C3,__OriginalData!$A$2:$W$122,22,FALSE)="nil","",VLOOKUP("npc_dota_hero_"&amp;$C3,__OriginalData!$A$2:$W$122,22,FALSE))</f>
         <v/>
       </c>
-      <c r="BJ3" s="20">
+      <c r="BJ3" s="19">
         <f>IF(VLOOKUP("npc_dota_hero_"&amp;$C3,__OriginalData!$A$2:$W$122,23,FALSE)="nil","",VLOOKUP("npc_dota_hero_"&amp;$C3,__OriginalData!$A$2:$W$122,23,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="BL3" s="4">
+      <c r="BL3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:64" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>1402</v>
       </c>
-      <c r="B4" s="14" t="str">
+      <c r="B4" s="13" t="str">
         <f>B3&amp;"_1"</f>
         <v>npc_dota_hero_earthshaker_1</v>
       </c>
-      <c r="C4" s="14" t="str">
+      <c r="C4" s="13" t="str">
         <f>C3</f>
         <v>earthshaker</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>1</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="15" t="str">
+      <c r="F4" s="14" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$C4,__OriginalData!$A$2:$W$122,2,FALSE)</f>
         <v>models/heroes/earthshaker/earthshaker.vmdl</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15">
+      <c r="G4" s="13"/>
+      <c r="H4" s="14">
         <v>0.85</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="28">
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="5">
         <v>123</v>
       </c>
-      <c r="L4" s="28">
-        <v>223</v>
-      </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15" t="str">
+      <c r="L4" s="5">
+        <v>223</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$C4,__OriginalData!$A$2:$W$122,4,FALSE)</f>
         <v>Hero_Earthshaker</v>
       </c>
-      <c r="X4" s="15" t="str">
+      <c r="X4" s="14" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$C4,__OriginalData!$A$2:$W$122,5,FALSE)</f>
         <v>particles/units/heroes/hero_earthshaker</v>
       </c>
-      <c r="Y4" s="20" t="str">
+      <c r="Y4" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$C4,__OriginalData!$A$2:$W$122,6,FALSE)</f>
         <v>soundevents/game_sounds_heroes/game_sounds_earthshaker.vsndevts</v>
       </c>
-      <c r="Z4" s="20" t="str">
+      <c r="Z4" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$C4,__OriginalData!$A$2:$W$122,7,FALSE)</f>
         <v>soundevents/voscripts/game_sounds_vo_earthshaker.vsndevts</v>
       </c>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20" t="str">
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$C4,__OriginalData!$A$2:$W$122,8,FALSE)</f>
         <v>earthshaker_fissure</v>
       </c>
-      <c r="AH4" s="20" t="str">
+      <c r="AH4" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$C4,__OriginalData!$A$2:$W$122,9,FALSE)</f>
         <v>earthshaker_enchant_totem</v>
       </c>
-      <c r="AI4" s="20" t="str">
+      <c r="AI4" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$C4,__OriginalData!$A$2:$W$122,10,FALSE)</f>
         <v>earthshaker_aftershock</v>
       </c>
-      <c r="AJ4" s="20" t="str">
+      <c r="AJ4" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$C4,__OriginalData!$A$2:$W$122,11,FALSE)</f>
         <v>generic_hidden</v>
       </c>
-      <c r="AK4" s="20" t="str">
+      <c r="AK4" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$C4,__OriginalData!$A$2:$W$122,12,FALSE)</f>
         <v>generic_hidden</v>
       </c>
-      <c r="AL4" s="20" t="str">
+      <c r="AL4" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$C4,__OriginalData!$A$2:$W$122,13,FALSE)</f>
         <v>earthshaker_echo_slam</v>
       </c>
-      <c r="AM4" s="15">
+      <c r="AM4" s="14">
         <v>1</v>
       </c>
-      <c r="AN4" s="33">
+      <c r="AN4" s="31">
         <f>AN3</f>
         <v>200</v>
       </c>
-      <c r="AO4" s="20">
+      <c r="AO4" s="19">
         <f>VLOOKUP("npc_dota_hero_"&amp;$C4,__OriginalData!$A$2:$W$122,15,FALSE)</f>
         <v>310</v>
       </c>
-      <c r="AP4" s="37">
+      <c r="AP4" s="34">
         <f>VLOOKUP("npc_dota_hero_"&amp;$C4,__OriginalData!$A$2:$W$122,16,FALSE)</f>
         <v>0.89999997615813998</v>
       </c>
-      <c r="AQ4" s="20" t="str">
+      <c r="AQ4" s="19" t="str">
         <f>IF(VLOOKUP("npc_dota_hero_"&amp;$C4,__OriginalData!$A$2:$W$122,17,FALSE)="nil","",VLOOKUP("npc_dota_hero_"&amp;$C4,__OriginalData!$A$2:$W$122,17,FALSE))</f>
         <v/>
       </c>
-      <c r="AR4" s="20" t="s">
+      <c r="AR4" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="AS4" s="20" t="str">
+      <c r="AS4" s="19" t="str">
         <f>VLOOKUP("npc_dota_hero_"&amp;$C4,__OriginalData!$A$2:$W$122,19,FALSE)</f>
         <v>DOTA_UNIT_CAP_MELEE_ATTACK</v>
       </c>
-      <c r="AT4" s="15">
+      <c r="AT4" s="14">
         <v>5</v>
       </c>
-      <c r="AU4" s="15">
+      <c r="AU4" s="14">
         <v>0</v>
       </c>
-      <c r="AV4" s="15">
+      <c r="AV4" s="14">
         <v>500</v>
       </c>
-      <c r="AW4" s="15">
+      <c r="AW4" s="14">
         <v>0</v>
       </c>
-      <c r="AX4" s="15">
+      <c r="AX4" s="14">
         <v>100</v>
       </c>
-      <c r="AY4" s="15">
+      <c r="AY4" s="14">
         <v>0</v>
       </c>
-      <c r="AZ4" s="15">
+      <c r="AZ4" s="14">
         <v>0</v>
       </c>
-      <c r="BA4" s="15">
+      <c r="BA4" s="14">
         <v>0</v>
       </c>
-      <c r="BB4" s="15">
+      <c r="BB4" s="14">
         <f>BB3</f>
         <v>50</v>
       </c>
-      <c r="BC4" s="15">
+      <c r="BC4" s="14">
         <f>BC3</f>
         <v>60</v>
       </c>
-      <c r="BD4" s="20">
+      <c r="BD4" s="19">
         <v>1.5</v>
       </c>
-      <c r="BE4" s="20">
+      <c r="BE4" s="19">
         <f>VLOOKUP("npc_dota_hero_"&amp;$C4,__OriginalData!$A$2:$W$122,20,FALSE)</f>
         <v>0.46700000762938998</v>
       </c>
-      <c r="BF4" s="20">
+      <c r="BF4" s="19">
         <f>VLOOKUP("npc_dota_hero_"&amp;$C4,__OriginalData!$A$2:$W$122,21,FALSE)</f>
         <v>150</v>
       </c>
-      <c r="BG4" s="20" t="s">
+      <c r="BG4" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="BH4" s="15">
+      <c r="BH4" s="14">
         <v>70</v>
       </c>
-      <c r="BI4" s="20" t="str">
+      <c r="BI4" s="19" t="str">
         <f>IF(VLOOKUP("npc_dota_hero_"&amp;$C4,__OriginalData!$A$2:$W$122,22,FALSE)="nil","",VLOOKUP("npc_dota_hero_"&amp;$C4,__OriginalData!$A$2:$W$122,22,FALSE))</f>
         <v/>
       </c>
-      <c r="BJ4" s="20">
+      <c r="BJ4" s="19">
         <f>IF(VLOOKUP("npc_dota_hero_"&amp;$C4,__OriginalData!$A$2:$W$122,23,FALSE)="nil","",VLOOKUP("npc_dota_hero_"&amp;$C4,__OriginalData!$A$2:$W$122,23,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="BK4" s="4"/>
-      <c r="BL4" s="5">
+      <c r="BK4" s="3"/>
+      <c r="BL4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="Y5" s="26"/>
-      <c r="AM5" s="17"/>
-      <c r="AN5" s="35"/>
-      <c r="AO5" s="17"/>
-      <c r="AP5" s="38"/>
-      <c r="AQ5" s="17"/>
-      <c r="AR5" s="17"/>
-      <c r="AS5" s="17"/>
-      <c r="AT5" s="17"/>
-      <c r="AU5" s="17"/>
-      <c r="AV5" s="17"/>
-      <c r="AW5" s="17"/>
-      <c r="AX5" s="17"/>
-      <c r="AY5" s="17"/>
-      <c r="AZ5" s="17"/>
-      <c r="BA5" s="17"/>
-      <c r="BB5" s="17"/>
-      <c r="BC5" s="17"/>
-      <c r="BD5" s="17"/>
-      <c r="BE5" s="17"/>
-      <c r="BF5" s="17"/>
-      <c r="BG5" s="17"/>
-      <c r="BH5" s="17"/>
-    </row>
-    <row r="6" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-      <c r="Y6" s="26"/>
-      <c r="AM6" s="17"/>
-      <c r="AN6" s="35"/>
-      <c r="AO6" s="17"/>
-      <c r="AP6" s="38"/>
-      <c r="AQ6" s="17"/>
-      <c r="AR6" s="17"/>
-      <c r="AS6" s="17"/>
-      <c r="AT6" s="17"/>
-      <c r="AU6" s="17"/>
-      <c r="AV6" s="17"/>
-      <c r="AW6" s="17"/>
-      <c r="AX6" s="17"/>
-      <c r="AY6" s="17"/>
-      <c r="AZ6" s="17"/>
-      <c r="BA6" s="17"/>
-      <c r="BB6" s="17"/>
-      <c r="BC6" s="17"/>
-      <c r="BD6" s="17"/>
-      <c r="BE6" s="17"/>
-      <c r="BF6" s="17"/>
-      <c r="BG6" s="17"/>
-      <c r="BH6" s="17"/>
-    </row>
-    <row r="7" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
-      <c r="Y7" s="26"/>
-      <c r="AM7" s="17"/>
-      <c r="AN7" s="35"/>
-      <c r="AO7" s="17"/>
-      <c r="AP7" s="38"/>
-      <c r="AQ7" s="17"/>
-      <c r="AR7" s="17"/>
-      <c r="AS7" s="17"/>
-      <c r="AT7" s="17"/>
-      <c r="AU7" s="17"/>
-      <c r="AV7" s="17"/>
-      <c r="AW7" s="17"/>
-      <c r="AX7" s="17"/>
-      <c r="AY7" s="17"/>
-      <c r="AZ7" s="17"/>
-      <c r="BA7" s="17"/>
-      <c r="BB7" s="17"/>
-      <c r="BC7" s="17"/>
-      <c r="BD7" s="17"/>
-      <c r="BE7" s="17"/>
-      <c r="BF7" s="17"/>
-      <c r="BG7" s="17"/>
-      <c r="BH7" s="17"/>
-    </row>
-    <row r="8" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
-      <c r="Y8" s="26"/>
-      <c r="AM8" s="17"/>
-      <c r="AN8" s="35"/>
-      <c r="AO8" s="17"/>
-      <c r="AP8" s="38"/>
-      <c r="AQ8" s="17"/>
-      <c r="AR8" s="17"/>
-      <c r="AS8" s="17"/>
-      <c r="AT8" s="17"/>
-      <c r="AU8" s="17"/>
-      <c r="AV8" s="17"/>
-      <c r="AW8" s="17"/>
-      <c r="AX8" s="17"/>
-      <c r="AY8" s="17"/>
-      <c r="AZ8" s="17"/>
-      <c r="BA8" s="17"/>
-      <c r="BB8" s="17"/>
-      <c r="BC8" s="17"/>
-      <c r="BD8" s="17"/>
-      <c r="BE8" s="17"/>
-      <c r="BF8" s="17"/>
-      <c r="BG8" s="17"/>
-      <c r="BH8" s="17"/>
-    </row>
-    <row r="9" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-      <c r="Y9" s="26"/>
-      <c r="AM9" s="17"/>
-      <c r="AN9" s="35"/>
-      <c r="AO9" s="17"/>
-      <c r="AP9" s="38"/>
-      <c r="AQ9" s="17"/>
-      <c r="AR9" s="17"/>
-      <c r="AS9" s="17"/>
-      <c r="AT9" s="17"/>
-      <c r="AU9" s="17"/>
-      <c r="AV9" s="17"/>
-      <c r="AW9" s="17"/>
-      <c r="AX9" s="17"/>
-      <c r="AY9" s="17"/>
-      <c r="AZ9" s="17"/>
-      <c r="BA9" s="17"/>
-      <c r="BB9" s="17"/>
-      <c r="BC9" s="17"/>
-      <c r="BD9" s="17"/>
-      <c r="BE9" s="17"/>
-      <c r="BF9" s="17"/>
-      <c r="BG9" s="17"/>
-      <c r="BH9" s="17"/>
-    </row>
-    <row r="10" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-      <c r="Y10" s="26"/>
-      <c r="AM10" s="17"/>
-      <c r="AN10" s="35"/>
-      <c r="AO10" s="17"/>
-      <c r="AP10" s="38"/>
-      <c r="AQ10" s="17"/>
-      <c r="AR10" s="17"/>
-      <c r="AS10" s="17"/>
-      <c r="AT10" s="17"/>
-      <c r="AU10" s="17"/>
-      <c r="AV10" s="17"/>
-      <c r="AW10" s="17"/>
-      <c r="AX10" s="17"/>
-      <c r="AY10" s="17"/>
-      <c r="AZ10" s="17"/>
-      <c r="BA10" s="17"/>
-      <c r="BB10" s="17"/>
-      <c r="BC10" s="17"/>
-      <c r="BD10" s="17"/>
-      <c r="BE10" s="17"/>
-      <c r="BF10" s="17"/>
-      <c r="BG10" s="17"/>
-      <c r="BH10" s="17"/>
-    </row>
-    <row r="11" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="Y11" s="26"/>
-      <c r="AM11" s="17"/>
-      <c r="AN11" s="35"/>
-      <c r="AO11" s="17"/>
-      <c r="AP11" s="38"/>
-      <c r="AQ11" s="17"/>
-      <c r="AR11" s="17"/>
-      <c r="AS11" s="17"/>
-      <c r="AT11" s="17"/>
-      <c r="AU11" s="17"/>
-      <c r="AV11" s="17"/>
-      <c r="AW11" s="17"/>
-      <c r="AX11" s="17"/>
-      <c r="AY11" s="17"/>
-      <c r="AZ11" s="17"/>
-      <c r="BA11" s="17"/>
-      <c r="BB11" s="17"/>
-      <c r="BC11" s="17"/>
-      <c r="BD11" s="17"/>
-      <c r="BE11" s="17"/>
-      <c r="BF11" s="17"/>
-      <c r="BG11" s="17"/>
-      <c r="BH11" s="17"/>
-    </row>
-    <row r="12" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="Y12" s="26"/>
-      <c r="AM12" s="17"/>
-      <c r="AN12" s="35"/>
-      <c r="AO12" s="17"/>
-      <c r="AP12" s="38"/>
-      <c r="AQ12" s="17"/>
-      <c r="AR12" s="17"/>
-      <c r="AS12" s="17"/>
-      <c r="AT12" s="17"/>
-      <c r="AU12" s="17"/>
-      <c r="AV12" s="17"/>
-      <c r="AW12" s="17"/>
-      <c r="AX12" s="17"/>
-      <c r="AY12" s="17"/>
-      <c r="AZ12" s="17"/>
-      <c r="BA12" s="17"/>
-      <c r="BB12" s="17"/>
-      <c r="BC12" s="17"/>
-      <c r="BD12" s="17"/>
-      <c r="BE12" s="17"/>
-      <c r="BF12" s="17"/>
-      <c r="BG12" s="17"/>
-      <c r="BH12" s="17"/>
-    </row>
-    <row r="13" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
-      <c r="Y13" s="26"/>
-      <c r="AM13" s="17"/>
-      <c r="AN13" s="35"/>
-      <c r="AO13" s="17"/>
-      <c r="AP13" s="38"/>
-      <c r="AQ13" s="17"/>
-      <c r="AR13" s="17"/>
-      <c r="AS13" s="17"/>
-      <c r="AT13" s="17"/>
-      <c r="AU13" s="17"/>
-      <c r="AV13" s="17"/>
-      <c r="AW13" s="17"/>
-      <c r="AX13" s="17"/>
-      <c r="AY13" s="17"/>
-      <c r="AZ13" s="17"/>
-      <c r="BA13" s="17"/>
-      <c r="BB13" s="17"/>
-      <c r="BC13" s="17"/>
-      <c r="BD13" s="17"/>
-      <c r="BE13" s="17"/>
-      <c r="BF13" s="17"/>
-      <c r="BG13" s="17"/>
-      <c r="BH13" s="17"/>
-    </row>
-    <row r="14" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
-      <c r="Y14" s="26"/>
-      <c r="AM14" s="17"/>
-      <c r="AN14" s="35"/>
-      <c r="AO14" s="17"/>
-      <c r="AP14" s="38"/>
-      <c r="AQ14" s="17"/>
-      <c r="AR14" s="17"/>
-      <c r="AS14" s="17"/>
-      <c r="AT14" s="17"/>
-      <c r="AU14" s="17"/>
-      <c r="AV14" s="17"/>
-      <c r="AW14" s="17"/>
-      <c r="AX14" s="17"/>
-      <c r="AY14" s="17"/>
-      <c r="AZ14" s="17"/>
-      <c r="BA14" s="17"/>
-      <c r="BB14" s="17"/>
-      <c r="BC14" s="17"/>
-      <c r="BD14" s="17"/>
-      <c r="BE14" s="17"/>
-      <c r="BF14" s="17"/>
-      <c r="BG14" s="17"/>
-      <c r="BH14" s="17"/>
-    </row>
-    <row r="15" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
-      <c r="Y15" s="26"/>
-      <c r="AM15" s="17"/>
-      <c r="AN15" s="35"/>
-      <c r="AO15" s="17"/>
-      <c r="AP15" s="38"/>
-      <c r="AQ15" s="17"/>
-      <c r="AR15" s="17"/>
-      <c r="AS15" s="17"/>
-      <c r="AT15" s="17"/>
-      <c r="AU15" s="17"/>
-      <c r="AV15" s="17"/>
-      <c r="AW15" s="17"/>
-      <c r="AX15" s="17"/>
-      <c r="AY15" s="17"/>
-      <c r="AZ15" s="17"/>
-      <c r="BA15" s="17"/>
-      <c r="BB15" s="17"/>
-      <c r="BC15" s="17"/>
-      <c r="BD15" s="17"/>
-      <c r="BE15" s="17"/>
-      <c r="BF15" s="17"/>
-      <c r="BG15" s="17"/>
-      <c r="BH15" s="17"/>
-    </row>
-    <row r="16" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
-      <c r="Y16" s="26"/>
-      <c r="AM16" s="17"/>
-      <c r="AN16" s="35"/>
-      <c r="AO16" s="17"/>
-      <c r="AP16" s="38"/>
-      <c r="AQ16" s="17"/>
-      <c r="AR16" s="17"/>
-      <c r="AS16" s="17"/>
-      <c r="AT16" s="17"/>
-      <c r="AU16" s="17"/>
-      <c r="AV16" s="17"/>
-      <c r="AW16" s="17"/>
-      <c r="AX16" s="17"/>
-      <c r="AY16" s="17"/>
-      <c r="AZ16" s="17"/>
-      <c r="BA16" s="17"/>
-      <c r="BB16" s="17"/>
-      <c r="BC16" s="17"/>
-      <c r="BD16" s="17"/>
-      <c r="BE16" s="17"/>
-      <c r="BF16" s="17"/>
-      <c r="BG16" s="17"/>
-      <c r="BH16" s="17"/>
-    </row>
-    <row r="17" spans="1:60" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
-      <c r="Y17" s="26"/>
-      <c r="AM17" s="17"/>
-      <c r="AN17" s="35"/>
-      <c r="AO17" s="17"/>
-      <c r="AP17" s="38"/>
-      <c r="AQ17" s="17"/>
-      <c r="AR17" s="17"/>
-      <c r="AS17" s="17"/>
-      <c r="AT17" s="17"/>
-      <c r="AU17" s="17"/>
-      <c r="AV17" s="17"/>
-      <c r="AW17" s="17"/>
-      <c r="AX17" s="17"/>
-      <c r="AY17" s="17"/>
-      <c r="AZ17" s="17"/>
-      <c r="BA17" s="17"/>
-      <c r="BB17" s="17"/>
-      <c r="BC17" s="17"/>
-      <c r="BD17" s="17"/>
-      <c r="BE17" s="17"/>
-      <c r="BF17" s="17"/>
-      <c r="BG17" s="17"/>
-      <c r="BH17" s="17"/>
-    </row>
-    <row r="18" spans="1:60" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
-      <c r="Y18" s="26"/>
-      <c r="AM18" s="17"/>
-      <c r="AN18" s="35"/>
-      <c r="AO18" s="17"/>
-      <c r="AP18" s="38"/>
-      <c r="AQ18" s="17"/>
-      <c r="AR18" s="17"/>
-      <c r="AS18" s="17"/>
-      <c r="AT18" s="17"/>
-      <c r="AU18" s="17"/>
-      <c r="AV18" s="17"/>
-      <c r="AW18" s="17"/>
-      <c r="AX18" s="17"/>
-      <c r="AY18" s="17"/>
-      <c r="AZ18" s="17"/>
-      <c r="BA18" s="17"/>
-      <c r="BB18" s="17"/>
-      <c r="BC18" s="17"/>
-      <c r="BD18" s="17"/>
-      <c r="BE18" s="17"/>
-      <c r="BF18" s="17"/>
-      <c r="BG18" s="17"/>
-      <c r="BH18" s="17"/>
-    </row>
-    <row r="19" spans="1:60" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
-      <c r="Y19" s="26"/>
-      <c r="AM19" s="17"/>
-      <c r="AN19" s="35"/>
-      <c r="AO19" s="17"/>
-      <c r="AP19" s="38"/>
-      <c r="AQ19" s="17"/>
-      <c r="AR19" s="17"/>
-      <c r="AS19" s="17"/>
-      <c r="AT19" s="17"/>
-      <c r="AU19" s="17"/>
-      <c r="AV19" s="17"/>
-      <c r="AW19" s="17"/>
-      <c r="AX19" s="17"/>
-      <c r="AY19" s="17"/>
-      <c r="AZ19" s="17"/>
-      <c r="BA19" s="17"/>
-      <c r="BB19" s="17"/>
-      <c r="BC19" s="17"/>
-      <c r="BD19" s="17"/>
-      <c r="BE19" s="17"/>
-      <c r="BF19" s="17"/>
-      <c r="BG19" s="17"/>
-      <c r="BH19" s="17"/>
-    </row>
-    <row r="20" spans="1:60" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
-      <c r="Y20" s="26"/>
-      <c r="AM20" s="17"/>
-      <c r="AN20" s="35"/>
-      <c r="AO20" s="17"/>
-      <c r="AP20" s="38"/>
-      <c r="AQ20" s="17"/>
-      <c r="AR20" s="17"/>
-      <c r="AS20" s="17"/>
-      <c r="AT20" s="17"/>
-      <c r="AU20" s="17"/>
-      <c r="AV20" s="17"/>
-      <c r="AW20" s="17"/>
-      <c r="AX20" s="17"/>
-      <c r="AY20" s="17"/>
-      <c r="AZ20" s="17"/>
-      <c r="BA20" s="17"/>
-      <c r="BB20" s="17"/>
-      <c r="BC20" s="17"/>
-      <c r="BD20" s="17"/>
-      <c r="BE20" s="17"/>
-      <c r="BF20" s="17"/>
-      <c r="BG20" s="17"/>
-      <c r="BH20" s="17"/>
+    <row r="5" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
+      <c r="Y5" s="25"/>
+      <c r="AM5" s="16"/>
+      <c r="AN5" s="32"/>
+      <c r="AO5" s="16"/>
+      <c r="AP5" s="35"/>
+      <c r="AQ5" s="16"/>
+      <c r="AR5" s="16"/>
+      <c r="AS5" s="16"/>
+      <c r="AT5" s="16"/>
+      <c r="AU5" s="16"/>
+      <c r="AV5" s="16"/>
+      <c r="AW5" s="16"/>
+      <c r="AX5" s="16"/>
+      <c r="AY5" s="16"/>
+      <c r="AZ5" s="16"/>
+      <c r="BA5" s="16"/>
+      <c r="BB5" s="16"/>
+      <c r="BC5" s="16"/>
+      <c r="BD5" s="16"/>
+      <c r="BE5" s="16"/>
+      <c r="BF5" s="16"/>
+      <c r="BG5" s="16"/>
+      <c r="BH5" s="16"/>
+    </row>
+    <row r="6" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16"/>
+      <c r="Y6" s="25"/>
+      <c r="AM6" s="16"/>
+      <c r="AN6" s="32"/>
+      <c r="AO6" s="16"/>
+      <c r="AP6" s="35"/>
+      <c r="AQ6" s="16"/>
+      <c r="AR6" s="16"/>
+      <c r="AS6" s="16"/>
+      <c r="AT6" s="16"/>
+      <c r="AU6" s="16"/>
+      <c r="AV6" s="16"/>
+      <c r="AW6" s="16"/>
+      <c r="AX6" s="16"/>
+      <c r="AY6" s="16"/>
+      <c r="AZ6" s="16"/>
+      <c r="BA6" s="16"/>
+      <c r="BB6" s="16"/>
+      <c r="BC6" s="16"/>
+      <c r="BD6" s="16"/>
+      <c r="BE6" s="16"/>
+      <c r="BF6" s="16"/>
+      <c r="BG6" s="16"/>
+      <c r="BH6" s="16"/>
+    </row>
+    <row r="7" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="Y7" s="25"/>
+      <c r="AM7" s="16"/>
+      <c r="AN7" s="32"/>
+      <c r="AO7" s="16"/>
+      <c r="AP7" s="35"/>
+      <c r="AQ7" s="16"/>
+      <c r="AR7" s="16"/>
+      <c r="AS7" s="16"/>
+      <c r="AT7" s="16"/>
+      <c r="AU7" s="16"/>
+      <c r="AV7" s="16"/>
+      <c r="AW7" s="16"/>
+      <c r="AX7" s="16"/>
+      <c r="AY7" s="16"/>
+      <c r="AZ7" s="16"/>
+      <c r="BA7" s="16"/>
+      <c r="BB7" s="16"/>
+      <c r="BC7" s="16"/>
+      <c r="BD7" s="16"/>
+      <c r="BE7" s="16"/>
+      <c r="BF7" s="16"/>
+      <c r="BG7" s="16"/>
+      <c r="BH7" s="16"/>
+    </row>
+    <row r="8" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
+      <c r="Y8" s="25"/>
+      <c r="AM8" s="16"/>
+      <c r="AN8" s="32"/>
+      <c r="AO8" s="16"/>
+      <c r="AP8" s="35"/>
+      <c r="AQ8" s="16"/>
+      <c r="AR8" s="16"/>
+      <c r="AS8" s="16"/>
+      <c r="AT8" s="16"/>
+      <c r="AU8" s="16"/>
+      <c r="AV8" s="16"/>
+      <c r="AW8" s="16"/>
+      <c r="AX8" s="16"/>
+      <c r="AY8" s="16"/>
+      <c r="AZ8" s="16"/>
+      <c r="BA8" s="16"/>
+      <c r="BB8" s="16"/>
+      <c r="BC8" s="16"/>
+      <c r="BD8" s="16"/>
+      <c r="BE8" s="16"/>
+      <c r="BF8" s="16"/>
+      <c r="BG8" s="16"/>
+      <c r="BH8" s="16"/>
+    </row>
+    <row r="9" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
+      <c r="Y9" s="25"/>
+      <c r="AM9" s="16"/>
+      <c r="AN9" s="32"/>
+      <c r="AO9" s="16"/>
+      <c r="AP9" s="35"/>
+      <c r="AQ9" s="16"/>
+      <c r="AR9" s="16"/>
+      <c r="AS9" s="16"/>
+      <c r="AT9" s="16"/>
+      <c r="AU9" s="16"/>
+      <c r="AV9" s="16"/>
+      <c r="AW9" s="16"/>
+      <c r="AX9" s="16"/>
+      <c r="AY9" s="16"/>
+      <c r="AZ9" s="16"/>
+      <c r="BA9" s="16"/>
+      <c r="BB9" s="16"/>
+      <c r="BC9" s="16"/>
+      <c r="BD9" s="16"/>
+      <c r="BE9" s="16"/>
+      <c r="BF9" s="16"/>
+      <c r="BG9" s="16"/>
+      <c r="BH9" s="16"/>
+    </row>
+    <row r="10" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16"/>
+      <c r="Y10" s="25"/>
+      <c r="AM10" s="16"/>
+      <c r="AN10" s="32"/>
+      <c r="AO10" s="16"/>
+      <c r="AP10" s="35"/>
+      <c r="AQ10" s="16"/>
+      <c r="AR10" s="16"/>
+      <c r="AS10" s="16"/>
+      <c r="AT10" s="16"/>
+      <c r="AU10" s="16"/>
+      <c r="AV10" s="16"/>
+      <c r="AW10" s="16"/>
+      <c r="AX10" s="16"/>
+      <c r="AY10" s="16"/>
+      <c r="AZ10" s="16"/>
+      <c r="BA10" s="16"/>
+      <c r="BB10" s="16"/>
+      <c r="BC10" s="16"/>
+      <c r="BD10" s="16"/>
+      <c r="BE10" s="16"/>
+      <c r="BF10" s="16"/>
+      <c r="BG10" s="16"/>
+      <c r="BH10" s="16"/>
+    </row>
+    <row r="11" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+      <c r="Y11" s="25"/>
+      <c r="AM11" s="16"/>
+      <c r="AN11" s="32"/>
+      <c r="AO11" s="16"/>
+      <c r="AP11" s="35"/>
+      <c r="AQ11" s="16"/>
+      <c r="AR11" s="16"/>
+      <c r="AS11" s="16"/>
+      <c r="AT11" s="16"/>
+      <c r="AU11" s="16"/>
+      <c r="AV11" s="16"/>
+      <c r="AW11" s="16"/>
+      <c r="AX11" s="16"/>
+      <c r="AY11" s="16"/>
+      <c r="AZ11" s="16"/>
+      <c r="BA11" s="16"/>
+      <c r="BB11" s="16"/>
+      <c r="BC11" s="16"/>
+      <c r="BD11" s="16"/>
+      <c r="BE11" s="16"/>
+      <c r="BF11" s="16"/>
+      <c r="BG11" s="16"/>
+      <c r="BH11" s="16"/>
+    </row>
+    <row r="12" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="Y12" s="25"/>
+      <c r="AM12" s="16"/>
+      <c r="AN12" s="32"/>
+      <c r="AO12" s="16"/>
+      <c r="AP12" s="35"/>
+      <c r="AQ12" s="16"/>
+      <c r="AR12" s="16"/>
+      <c r="AS12" s="16"/>
+      <c r="AT12" s="16"/>
+      <c r="AU12" s="16"/>
+      <c r="AV12" s="16"/>
+      <c r="AW12" s="16"/>
+      <c r="AX12" s="16"/>
+      <c r="AY12" s="16"/>
+      <c r="AZ12" s="16"/>
+      <c r="BA12" s="16"/>
+      <c r="BB12" s="16"/>
+      <c r="BC12" s="16"/>
+      <c r="BD12" s="16"/>
+      <c r="BE12" s="16"/>
+      <c r="BF12" s="16"/>
+      <c r="BG12" s="16"/>
+      <c r="BH12" s="16"/>
+    </row>
+    <row r="13" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
+      <c r="Y13" s="25"/>
+      <c r="AM13" s="16"/>
+      <c r="AN13" s="32"/>
+      <c r="AO13" s="16"/>
+      <c r="AP13" s="35"/>
+      <c r="AQ13" s="16"/>
+      <c r="AR13" s="16"/>
+      <c r="AS13" s="16"/>
+      <c r="AT13" s="16"/>
+      <c r="AU13" s="16"/>
+      <c r="AV13" s="16"/>
+      <c r="AW13" s="16"/>
+      <c r="AX13" s="16"/>
+      <c r="AY13" s="16"/>
+      <c r="AZ13" s="16"/>
+      <c r="BA13" s="16"/>
+      <c r="BB13" s="16"/>
+      <c r="BC13" s="16"/>
+      <c r="BD13" s="16"/>
+      <c r="BE13" s="16"/>
+      <c r="BF13" s="16"/>
+      <c r="BG13" s="16"/>
+      <c r="BH13" s="16"/>
+    </row>
+    <row r="14" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
+      <c r="Y14" s="25"/>
+      <c r="AM14" s="16"/>
+      <c r="AN14" s="32"/>
+      <c r="AO14" s="16"/>
+      <c r="AP14" s="35"/>
+      <c r="AQ14" s="16"/>
+      <c r="AR14" s="16"/>
+      <c r="AS14" s="16"/>
+      <c r="AT14" s="16"/>
+      <c r="AU14" s="16"/>
+      <c r="AV14" s="16"/>
+      <c r="AW14" s="16"/>
+      <c r="AX14" s="16"/>
+      <c r="AY14" s="16"/>
+      <c r="AZ14" s="16"/>
+      <c r="BA14" s="16"/>
+      <c r="BB14" s="16"/>
+      <c r="BC14" s="16"/>
+      <c r="BD14" s="16"/>
+      <c r="BE14" s="16"/>
+      <c r="BF14" s="16"/>
+      <c r="BG14" s="16"/>
+      <c r="BH14" s="16"/>
+    </row>
+    <row r="15" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="16"/>
+      <c r="Y15" s="25"/>
+      <c r="AM15" s="16"/>
+      <c r="AN15" s="32"/>
+      <c r="AO15" s="16"/>
+      <c r="AP15" s="35"/>
+      <c r="AQ15" s="16"/>
+      <c r="AR15" s="16"/>
+      <c r="AS15" s="16"/>
+      <c r="AT15" s="16"/>
+      <c r="AU15" s="16"/>
+      <c r="AV15" s="16"/>
+      <c r="AW15" s="16"/>
+      <c r="AX15" s="16"/>
+      <c r="AY15" s="16"/>
+      <c r="AZ15" s="16"/>
+      <c r="BA15" s="16"/>
+      <c r="BB15" s="16"/>
+      <c r="BC15" s="16"/>
+      <c r="BD15" s="16"/>
+      <c r="BE15" s="16"/>
+      <c r="BF15" s="16"/>
+      <c r="BG15" s="16"/>
+      <c r="BH15" s="16"/>
+    </row>
+    <row r="16" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
+      <c r="Y16" s="25"/>
+      <c r="AM16" s="16"/>
+      <c r="AN16" s="32"/>
+      <c r="AO16" s="16"/>
+      <c r="AP16" s="35"/>
+      <c r="AQ16" s="16"/>
+      <c r="AR16" s="16"/>
+      <c r="AS16" s="16"/>
+      <c r="AT16" s="16"/>
+      <c r="AU16" s="16"/>
+      <c r="AV16" s="16"/>
+      <c r="AW16" s="16"/>
+      <c r="AX16" s="16"/>
+      <c r="AY16" s="16"/>
+      <c r="AZ16" s="16"/>
+      <c r="BA16" s="16"/>
+      <c r="BB16" s="16"/>
+      <c r="BC16" s="16"/>
+      <c r="BD16" s="16"/>
+      <c r="BE16" s="16"/>
+      <c r="BF16" s="16"/>
+      <c r="BG16" s="16"/>
+      <c r="BH16" s="16"/>
+    </row>
+    <row r="17" spans="1:60" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
+      <c r="Y17" s="25"/>
+      <c r="AM17" s="16"/>
+      <c r="AN17" s="32"/>
+      <c r="AO17" s="16"/>
+      <c r="AP17" s="35"/>
+      <c r="AQ17" s="16"/>
+      <c r="AR17" s="16"/>
+      <c r="AS17" s="16"/>
+      <c r="AT17" s="16"/>
+      <c r="AU17" s="16"/>
+      <c r="AV17" s="16"/>
+      <c r="AW17" s="16"/>
+      <c r="AX17" s="16"/>
+      <c r="AY17" s="16"/>
+      <c r="AZ17" s="16"/>
+      <c r="BA17" s="16"/>
+      <c r="BB17" s="16"/>
+      <c r="BC17" s="16"/>
+      <c r="BD17" s="16"/>
+      <c r="BE17" s="16"/>
+      <c r="BF17" s="16"/>
+      <c r="BG17" s="16"/>
+      <c r="BH17" s="16"/>
+    </row>
+    <row r="18" spans="1:60" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="Y18" s="25"/>
+      <c r="AM18" s="16"/>
+      <c r="AN18" s="32"/>
+      <c r="AO18" s="16"/>
+      <c r="AP18" s="35"/>
+      <c r="AQ18" s="16"/>
+      <c r="AR18" s="16"/>
+      <c r="AS18" s="16"/>
+      <c r="AT18" s="16"/>
+      <c r="AU18" s="16"/>
+      <c r="AV18" s="16"/>
+      <c r="AW18" s="16"/>
+      <c r="AX18" s="16"/>
+      <c r="AY18" s="16"/>
+      <c r="AZ18" s="16"/>
+      <c r="BA18" s="16"/>
+      <c r="BB18" s="16"/>
+      <c r="BC18" s="16"/>
+      <c r="BD18" s="16"/>
+      <c r="BE18" s="16"/>
+      <c r="BF18" s="16"/>
+      <c r="BG18" s="16"/>
+      <c r="BH18" s="16"/>
+    </row>
+    <row r="19" spans="1:60" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="Y19" s="25"/>
+      <c r="AM19" s="16"/>
+      <c r="AN19" s="32"/>
+      <c r="AO19" s="16"/>
+      <c r="AP19" s="35"/>
+      <c r="AQ19" s="16"/>
+      <c r="AR19" s="16"/>
+      <c r="AS19" s="16"/>
+      <c r="AT19" s="16"/>
+      <c r="AU19" s="16"/>
+      <c r="AV19" s="16"/>
+      <c r="AW19" s="16"/>
+      <c r="AX19" s="16"/>
+      <c r="AY19" s="16"/>
+      <c r="AZ19" s="16"/>
+      <c r="BA19" s="16"/>
+      <c r="BB19" s="16"/>
+      <c r="BC19" s="16"/>
+      <c r="BD19" s="16"/>
+      <c r="BE19" s="16"/>
+      <c r="BF19" s="16"/>
+      <c r="BG19" s="16"/>
+      <c r="BH19" s="16"/>
+    </row>
+    <row r="20" spans="1:60" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="Y20" s="25"/>
+      <c r="AM20" s="16"/>
+      <c r="AN20" s="32"/>
+      <c r="AO20" s="16"/>
+      <c r="AP20" s="35"/>
+      <c r="AQ20" s="16"/>
+      <c r="AR20" s="16"/>
+      <c r="AS20" s="16"/>
+      <c r="AT20" s="16"/>
+      <c r="AU20" s="16"/>
+      <c r="AV20" s="16"/>
+      <c r="AW20" s="16"/>
+      <c r="AX20" s="16"/>
+      <c r="AY20" s="16"/>
+      <c r="AZ20" s="16"/>
+      <c r="BA20" s="16"/>
+      <c r="BB20" s="16"/>
+      <c r="BC20" s="16"/>
+      <c r="BD20" s="16"/>
+      <c r="BE20" s="16"/>
+      <c r="BF20" s="16"/>
+      <c r="BG20" s="16"/>
+      <c r="BH20" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:BJ4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="W3 A3:C4">
-    <cfRule type="containsText" dxfId="79" priority="1663" operator="containsText" text="_custom">
+  <conditionalFormatting sqref="A3:C4">
+    <cfRule type="containsText" dxfId="30" priority="1663" operator="containsText" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X3">
-    <cfRule type="containsText" dxfId="78" priority="1664" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",X3)))</formula>
+  <conditionalFormatting sqref="D3:D4">
+    <cfRule type="cellIs" dxfId="29" priority="1787" operator="equal">
+      <formula>"metal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="1788" operator="equal">
+      <formula>"earth"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="1789" operator="equal">
+      <formula>"fire"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="1790" operator="equal">
+      <formula>"wood"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="1791" operator="equal">
+      <formula>"water"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y3">
-    <cfRule type="containsText" dxfId="77" priority="1665" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",Y3)))</formula>
+  <conditionalFormatting sqref="D5:D21">
+    <cfRule type="cellIs" dxfId="24" priority="1398" operator="equal">
+      <formula>"metal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="1399" operator="equal">
+      <formula>"earth"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="1400" operator="equal">
+      <formula>"fire"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="1401" operator="equal">
+      <formula>"wood"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="1402" operator="equal">
+      <formula>"water"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:AB3">
-    <cfRule type="containsText" dxfId="76" priority="1662" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",Z3)))</formula>
+  <conditionalFormatting sqref="F3:F4">
+    <cfRule type="containsText" dxfId="19" priority="1793" operator="containsText" text="_custom">
+      <formula>NOT(ISERROR(SEARCH("_custom",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG3">
-    <cfRule type="containsText" dxfId="75" priority="1661" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AG3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH3">
-    <cfRule type="containsText" dxfId="74" priority="1660" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AH3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI3:AL3">
-    <cfRule type="containsText" dxfId="73" priority="1659" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AI3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ3">
-    <cfRule type="containsText" dxfId="72" priority="1651" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AQ3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="1652" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AQ3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="1653" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AQ3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BE3">
-    <cfRule type="containsText" dxfId="69" priority="1643" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BE3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="1644" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BE3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="1645" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",BE3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="1646" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",BE3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF3">
-    <cfRule type="containsText" dxfId="65" priority="1639" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BF3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="1640" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BF3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="1641" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",BF3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="1642" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",BF3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BI3">
-    <cfRule type="containsText" dxfId="61" priority="1632" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BI3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="1633" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BI3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="1634" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BI3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="1635" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BI3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="1636" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BI3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="1637" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",BI3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="1638" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",BI3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ3">
-    <cfRule type="containsText" dxfId="54" priority="1625" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BJ3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="1626" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BJ3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="1627" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BJ3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="1628" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BJ3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="1629" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BJ3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="1630" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",BJ3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="1631" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",BJ3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W4">
-    <cfRule type="containsText" dxfId="47" priority="1668" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",W4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X4">
-    <cfRule type="containsText" dxfId="46" priority="1667" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",X4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y4">
-    <cfRule type="containsText" dxfId="45" priority="1666" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",Y4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF5:BJ1048576 AN4:AU4 I4:J4 P4:AC4 A3:H4 AE3:AM4 I3:AC3 BH3:XFD4 AX4:BF4 AN3:BF3">
-    <cfRule type="expression" dxfId="44" priority="1547">
+  <conditionalFormatting sqref="I3:AC3 P4:AC4 A3:H4 I4:J4 BF5:BJ1048576">
+    <cfRule type="expression" dxfId="18" priority="1547">
       <formula>$AS3="DOTA_UNIT_CAP_RANGED_ATTACK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS1:AS1048576">
-    <cfRule type="containsText" dxfId="43" priority="1457" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",AS1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="1458" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",AS1)))</formula>
+  <conditionalFormatting sqref="W3:AB4">
+    <cfRule type="containsText" dxfId="17" priority="1662" operator="containsText" text="_custom">
+      <formula>NOT(ISERROR(SEARCH("_custom",W3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D21">
-    <cfRule type="cellIs" dxfId="41" priority="1398" operator="equal">
-      <formula>"metal"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="1399" operator="equal">
-      <formula>"earth"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="1400" operator="equal">
-      <formula>"fire"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="1401" operator="equal">
-      <formula>"wood"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="1402" operator="equal">
-      <formula>"water"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC3:AC4">
-    <cfRule type="containsText" dxfId="36" priority="1475" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AC3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BD3:BD4">
-    <cfRule type="containsText" dxfId="35" priority="1618" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BD3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="1619" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BD3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="1620" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BD3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="1621" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BD3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="1622" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BD3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="1623" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",BD3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="1624" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",BD3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BG3:BG4">
-    <cfRule type="containsText" dxfId="28" priority="6" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",BG3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="7" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",BG3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="8" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",BG3)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="9">
-      <formula>$AS3="DOTA_UNIT_CAP_RANGED_ATTACK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BE4:BF4 BI4:BJ4">
-    <cfRule type="containsText" dxfId="24" priority="1794" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",BE4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="1795" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
-      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",BE4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF1:BJ2">
-    <cfRule type="expression" dxfId="22" priority="1796">
-      <formula>$AS1="DOTA_UNIT_CAP_RANGED_ATTACK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV4:AW4">
-    <cfRule type="expression" dxfId="21" priority="318">
-      <formula>$AS4="DOTA_UNIT_CAP_RANGED_ATTACK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG4:AL4 BE4:BF4 AN4:AS4 F3:F4 Z4:AB4 BI4:BJ4">
-    <cfRule type="containsText" dxfId="20" priority="1793" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",F3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D4">
-    <cfRule type="cellIs" dxfId="19" priority="1787" operator="equal">
-      <formula>"metal"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="1788" operator="equal">
-      <formula>"earth"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="1789" operator="equal">
-      <formula>"fire"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="1790" operator="equal">
-      <formula>"wood"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="1791" operator="equal">
-      <formula>"water"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB3">
-    <cfRule type="containsText" dxfId="14" priority="564" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AB3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="566" operator="containsText" text="_custom">
+  <conditionalFormatting sqref="AB3:AC4">
+    <cfRule type="containsText" dxfId="16" priority="563" operator="containsText" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",AB3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE3:AF4">
-    <cfRule type="containsText" dxfId="12" priority="196" operator="containsText" text="_custom">
+    <cfRule type="containsText" dxfId="15" priority="196" operator="containsText" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",AE3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN3">
-    <cfRule type="containsText" dxfId="11" priority="1658" operator="containsText" text="_custom">
+  <conditionalFormatting sqref="AE3:BF4">
+    <cfRule type="expression" dxfId="14" priority="318">
+      <formula>$AS3="DOTA_UNIT_CAP_RANGED_ATTACK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG3:AL4">
+    <cfRule type="containsText" dxfId="13" priority="1659" operator="containsText" text="_custom">
+      <formula>NOT(ISERROR(SEARCH("_custom",AG3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN3:AS4">
+    <cfRule type="containsText" dxfId="12" priority="1647" operator="containsText" text="_custom">
       <formula>NOT(ISERROR(SEARCH("_custom",AN3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO3">
-    <cfRule type="containsText" dxfId="10" priority="1656" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AO3)))</formula>
+  <conditionalFormatting sqref="AS1:AS1048576">
+    <cfRule type="containsText" dxfId="11" priority="1457" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
+      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",AS1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="1657" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AO3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP3">
-    <cfRule type="containsText" dxfId="8" priority="1654" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AP3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="1655" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AP3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR3">
-    <cfRule type="containsText" dxfId="6" priority="1649" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AR3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="1650" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AR3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS3">
-    <cfRule type="containsText" dxfId="4" priority="1647" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AS3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="1648" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AS3)))</formula>
+    <cfRule type="containsText" dxfId="10" priority="1458" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
+      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",AS1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD3:BD4">
-    <cfRule type="containsBlanks" dxfId="2" priority="1792">
+    <cfRule type="containsBlanks" dxfId="9" priority="1792">
       <formula>LEN(TRIM(BD3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB4">
-    <cfRule type="containsText" dxfId="1" priority="563" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AB4)))</formula>
+  <conditionalFormatting sqref="BD3:BF4">
+    <cfRule type="containsText" dxfId="8" priority="1618" operator="containsText" text="_custom">
+      <formula>NOT(ISERROR(SEARCH("_custom",BD3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="565" operator="containsText" text="_custom">
-      <formula>NOT(ISERROR(SEARCH("_custom",AB4)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BD3:BG4">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
+      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",BD3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
+      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",BD3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF1:BJ2">
+    <cfRule type="expression" dxfId="5" priority="1796">
+      <formula>$AS1="DOTA_UNIT_CAP_RANGED_ATTACK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG3:BG4">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="_custom">
+      <formula>NOT(ISERROR(SEARCH("_custom",BG3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG3:XFD4">
+    <cfRule type="expression" dxfId="3" priority="9">
+      <formula>$AS3="DOTA_UNIT_CAP_RANGED_ATTACK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BI3:BJ4">
+    <cfRule type="containsText" dxfId="2" priority="1625" operator="containsText" text="_custom">
+      <formula>NOT(ISERROR(SEARCH("_custom",BI3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1630" operator="containsText" text="DOTA_UNIT_CAP_MELEE_ATTACK">
+      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_MELEE_ATTACK",BI3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="1631" operator="containsText" text="DOTA_UNIT_CAP_RANGED_ATTACK">
+      <formula>NOT(ISERROR(SEARCH("DOTA_UNIT_CAP_RANGED_ATTACK",BI3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8949,42 +8456,42 @@
       <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.08203125" customWidth="1"/>
-    <col min="2" max="2" width="42.83203125" customWidth="1"/>
+    <col min="1" max="1" width="31.125" customWidth="1"/>
+    <col min="2" max="2" width="42.875" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" customWidth="1"/>
-    <col min="9" max="9" width="22.08203125" customWidth="1"/>
-    <col min="10" max="10" width="18.08203125" customWidth="1"/>
-    <col min="11" max="11" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="8" max="8" width="20.875" customWidth="1"/>
+    <col min="9" max="9" width="22.125" customWidth="1"/>
+    <col min="10" max="10" width="18.125" customWidth="1"/>
+    <col min="11" max="11" width="17.875" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="15.08203125" customWidth="1"/>
+    <col min="13" max="13" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>208</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>209</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>210</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>211</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>124</v>
       </c>
       <c r="B2" t="s">
@@ -8993,7 +8500,7 @@
       <c r="C2" s="1">
         <v>0.79000002145767001</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>214</v>
       </c>
       <c r="E2" t="s">
@@ -9057,7 +8564,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>173</v>
       </c>
@@ -9131,7 +8638,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>161</v>
       </c>
@@ -9205,7 +8712,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>174</v>
       </c>
@@ -9279,7 +8786,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>120</v>
       </c>
@@ -9353,7 +8860,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>197</v>
       </c>
@@ -9427,7 +8934,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -9501,7 +9008,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>119</v>
       </c>
@@ -9575,7 +9082,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -9649,7 +9156,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>184</v>
       </c>
@@ -9723,7 +9230,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>146</v>
       </c>
@@ -9797,7 +9304,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>155</v>
       </c>
@@ -9871,7 +9378,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>132</v>
       </c>
@@ -9945,7 +9452,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>205</v>
       </c>
@@ -10019,8 +9526,8 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>356</v>
       </c>
       <c r="B16" t="s">
@@ -10093,7 +9600,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>121</v>
       </c>
@@ -10167,7 +9674,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -10241,7 +9748,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>387</v>
       </c>
@@ -10315,7 +9822,7 @@
         <v>1.6000000238419001</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>202</v>
       </c>
@@ -10389,7 +9896,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>116</v>
       </c>
@@ -10463,7 +9970,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>118</v>
       </c>
@@ -10537,7 +10044,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>96</v>
       </c>
@@ -10611,7 +10118,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>437</v>
       </c>
@@ -10685,7 +10192,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>175</v>
       </c>
@@ -10759,7 +10266,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -10833,7 +10340,7 @@
         <v>1.6000000238419001</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>182</v>
       </c>
@@ -10907,7 +10414,7 @@
         <v>1.6000000238419001</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>206</v>
       </c>
@@ -10981,7 +10488,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>137</v>
       </c>
@@ -11055,7 +10562,7 @@
         <v>1.7999999523162999</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>159</v>
       </c>
@@ -11129,7 +10636,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>134</v>
       </c>
@@ -11203,7 +10710,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>123</v>
       </c>
@@ -11277,7 +10784,7 @@
         <v>1.7999999523162999</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>200</v>
       </c>
@@ -11351,7 +10858,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -11425,7 +10932,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>165</v>
       </c>
@@ -11499,7 +11006,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>152</v>
       </c>
@@ -11573,7 +11080,7 @@
         <v>1.3999999761580999</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>201</v>
       </c>
@@ -11647,7 +11154,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>94</v>
       </c>
@@ -11721,7 +11228,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>158</v>
       </c>
@@ -11795,7 +11302,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>593</v>
       </c>
@@ -11851,7 +11358,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>141</v>
       </c>
@@ -11925,7 +11432,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>606</v>
       </c>
@@ -11981,7 +11488,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>204</v>
       </c>
@@ -12055,7 +11562,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>148</v>
       </c>
@@ -12129,7 +11636,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>105</v>
       </c>
@@ -12203,7 +11710,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>125</v>
       </c>
@@ -12277,7 +11784,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>203</v>
       </c>
@@ -12351,7 +11858,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>104</v>
       </c>
@@ -12425,7 +11932,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>126</v>
       </c>
@@ -12499,7 +12006,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>110</v>
       </c>
@@ -12573,7 +12080,7 @@
         <v>1.8999999761580999</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>179</v>
       </c>
@@ -12647,7 +12154,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>172</v>
       </c>
@@ -12721,7 +12228,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>171</v>
       </c>
@@ -12795,7 +12302,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>88</v>
       </c>
@@ -12869,7 +12376,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>143</v>
       </c>
@@ -12943,7 +12450,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>93</v>
       </c>
@@ -13017,7 +12524,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>178</v>
       </c>
@@ -13091,7 +12598,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>170</v>
       </c>
@@ -13165,7 +12672,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>109</v>
       </c>
@@ -13239,7 +12746,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>106</v>
       </c>
@@ -13313,7 +12820,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>108</v>
       </c>
@@ -13387,7 +12894,7 @@
         <v>1.7999999523162999</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>112</v>
       </c>
@@ -13461,7 +12968,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>198</v>
       </c>
@@ -13535,7 +13042,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>196</v>
       </c>
@@ -13609,7 +13116,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>195</v>
       </c>
@@ -13683,7 +13190,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>164</v>
       </c>
@@ -13757,7 +13264,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>187</v>
       </c>
@@ -13831,7 +13338,7 @@
         <v>1.8999999761580999</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>113</v>
       </c>
@@ -13905,7 +13412,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>100</v>
       </c>
@@ -13979,7 +13486,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>114</v>
       </c>
@@ -14053,7 +13560,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>177</v>
       </c>
@@ -14127,7 +13634,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>194</v>
       </c>
@@ -14201,7 +13708,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>193</v>
       </c>
@@ -14275,7 +13782,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>192</v>
       </c>
@@ -14349,7 +13856,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>140</v>
       </c>
@@ -14423,7 +13930,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>97</v>
       </c>
@@ -14497,7 +14004,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>128</v>
       </c>
@@ -14571,7 +14078,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>147</v>
       </c>
@@ -14645,7 +14152,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>207</v>
       </c>
@@ -14719,7 +14226,7 @@
         <v>1.7999999523162999</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>111</v>
       </c>
@@ -14793,7 +14300,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>191</v>
       </c>
@@ -14867,7 +14374,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>150</v>
       </c>
@@ -14941,7 +14448,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>154</v>
       </c>
@@ -15015,7 +14522,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>122</v>
       </c>
@@ -15089,7 +14596,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>162</v>
       </c>
@@ -15163,7 +14670,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>138</v>
       </c>
@@ -15237,7 +14744,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>190</v>
       </c>
@@ -15311,7 +14818,7 @@
         <v>1.8999999761580999</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>189</v>
       </c>
@@ -15385,7 +14892,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>186</v>
       </c>
@@ -15459,7 +14966,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>188</v>
       </c>
@@ -15533,7 +15040,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>101</v>
       </c>
@@ -15607,7 +15114,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>131</v>
       </c>
@@ -15681,7 +15188,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>102</v>
       </c>
@@ -15755,7 +15262,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>181</v>
       </c>
@@ -15829,7 +15336,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>117</v>
       </c>
@@ -15903,7 +15410,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>107</v>
       </c>
@@ -15977,7 +15484,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -16051,7 +15558,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>185</v>
       </c>
@@ -16125,7 +15632,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>144</v>
       </c>
@@ -16199,7 +15706,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>139</v>
       </c>
@@ -16273,7 +15780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>135</v>
       </c>
@@ -16347,7 +15854,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>183</v>
       </c>
@@ -16421,7 +15928,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>157</v>
       </c>
@@ -16495,7 +16002,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>130</v>
       </c>
@@ -16569,7 +16076,7 @@
         <v>1.7999999523162999</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>167</v>
       </c>
@@ -16643,7 +16150,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>160</v>
       </c>
@@ -16717,7 +16224,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>180</v>
       </c>
@@ -16791,7 +16298,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>151</v>
       </c>
@@ -16865,7 +16372,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>169</v>
       </c>
@@ -16939,7 +16446,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>163</v>
       </c>
@@ -17013,7 +16520,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>199</v>
       </c>
@@ -17087,7 +16594,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>145</v>
       </c>
@@ -17161,7 +16668,7 @@
         <v>1.3999999761580999</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>168</v>
       </c>
@@ -17235,7 +16742,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>136</v>
       </c>
@@ -17309,7 +16816,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>166</v>
       </c>
@@ -17383,7 +16890,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>99</v>
       </c>
@@ -17457,7 +16964,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>129</v>
       </c>
@@ -17531,7 +17038,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>153</v>
       </c>
@@ -17605,7 +17112,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>149</v>
       </c>
@@ -17679,7 +17186,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>156</v>
       </c>
@@ -17753,7 +17260,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>115</v>
       </c>
@@ -17827,7 +17334,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>176</v>
       </c>

--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selfimba\imba\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84318447-22D1-4390-BEAA-3140C006973B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C4234E-82BB-48AA-9EC1-55AC13D2BEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="323" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4545" yWindow="4545" windowWidth="28800" windowHeight="15345" tabRatio="323" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="herolist" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="1487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="1487">
   <si>
     <t>主键</t>
   </si>
@@ -4567,10 +4567,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>测试技能</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>测试技能的描述</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -4591,11 +4587,15 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">DOTA_ABILITY_BEHAVIOR_HIDDEN </t>
+    <t>attr_damage</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>attr_damage</t>
+    <t>普通攻击</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DOTA_ABILITY_BEHAVIOR_HIDDEN + DOTA_ABILITY_BEHAVIOR_PASSIVE </t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -4607,7 +4607,7 @@
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5455,13 +5455,13 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="33" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="8.75" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="38" t="s">
         <v>1465</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="42" t="s">
         <v>1471</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="42" t="s">
         <v>1472</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="38" t="s">
         <v>152</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="38" t="s">
         <v>162</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="38" t="s">
         <v>158</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="38" t="s">
         <v>122</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="38" t="s">
         <v>163</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="38" t="s">
         <v>185</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="38" t="s">
         <v>103</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="38" t="s">
         <v>180</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="38" t="s">
         <v>177</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="38" t="s">
         <v>129</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="38" t="s">
         <v>139</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="38" t="s">
         <v>161</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="38" t="s">
         <v>88</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="38" t="s">
         <v>143</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="38" t="s">
         <v>127</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="38" t="s">
         <v>172</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="38" t="s">
         <v>107</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="38" t="s">
         <v>145</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="38" t="s">
         <v>141</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="38" t="s">
         <v>178</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="38" t="s">
         <v>166</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="38" t="s">
         <v>179</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="38" t="s">
         <v>95</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="38" t="s">
         <v>154</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="38" t="s">
         <v>153</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="38" t="s">
         <v>132</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" s="38" t="s">
         <v>170</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" s="38" t="s">
         <v>114</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" s="38" t="s">
         <v>183</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" s="38" t="s">
         <v>181</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" s="38" t="s">
         <v>165</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="38" t="s">
         <v>148</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="38" t="s">
         <v>174</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" s="38" t="s">
         <v>100</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" s="38" t="s">
         <v>116</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" s="38" t="s">
         <v>168</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" s="38" t="s">
         <v>92</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" s="38" t="s">
         <v>167</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" s="38" t="s">
         <v>142</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" s="38" t="s">
         <v>169</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" s="38" t="s">
         <v>186</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" s="38" t="s">
         <v>160</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" s="38" t="s">
         <v>130</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" s="38" t="s">
         <v>119</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" s="38" t="s">
         <v>99</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" s="38" t="s">
         <v>155</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" s="38" t="s">
         <v>157</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" s="38" t="s">
         <v>171</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" s="38" t="s">
         <v>176</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" s="38" t="s">
         <v>123</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" s="38" t="s">
         <v>146</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" s="38" t="s">
         <v>156</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" s="38" t="s">
         <v>131</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" s="38" t="s">
         <v>144</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" s="38" t="s">
         <v>159</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" s="38" t="s">
         <v>151</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" s="38" t="s">
         <v>182</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" s="38" t="s">
         <v>184</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" s="38" t="s">
         <v>97</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" s="38" t="s">
         <v>138</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64" s="38" t="s">
         <v>102</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65" s="38" t="s">
         <v>173</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66" s="38" t="s">
         <v>135</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67" s="38" t="s">
         <v>101</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68" s="38" t="s">
         <v>189</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69" s="38" t="s">
         <v>187</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70" s="38" t="s">
         <v>188</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71" s="38" t="s">
         <v>96</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72" s="38" t="s">
         <v>190</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73" s="38" t="s">
         <v>191</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74" s="38" t="s">
         <v>1463</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75" s="38" t="s">
         <v>124</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76" s="38" t="s">
         <v>111</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77" s="38" t="s">
         <v>164</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78" s="38" t="s">
         <v>110</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79" s="38" t="s">
         <v>98</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80" s="38" t="s">
         <v>115</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81" s="38" t="s">
         <v>147</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82" s="38" t="s">
         <v>117</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83" s="38" t="s">
         <v>193</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84" s="38" t="s">
         <v>150</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85" s="38" t="s">
         <v>197</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86" s="38" t="s">
         <v>194</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87" s="38" t="s">
         <v>192</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="A88" s="38" t="s">
         <v>175</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89" s="38" t="s">
         <v>120</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2">
       <c r="A90" s="38" t="s">
         <v>136</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2">
       <c r="A91" s="38" t="s">
         <v>195</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2">
       <c r="A92" s="38" t="s">
         <v>196</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2">
       <c r="A93" s="38" t="s">
         <v>128</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2">
       <c r="A94" s="38" t="s">
         <v>137</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2">
       <c r="A95" s="38" t="s">
         <v>112</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2">
       <c r="A96" s="38" t="s">
         <v>134</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2">
       <c r="A97" s="38" t="s">
         <v>118</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2">
       <c r="A98" s="38" t="s">
         <v>121</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2">
       <c r="A99" s="38" t="s">
         <v>198</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2">
       <c r="A100" s="38" t="s">
         <v>106</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2">
       <c r="A101" s="38" t="s">
         <v>108</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2">
       <c r="A102" s="38" t="s">
         <v>199</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2">
       <c r="A103" s="38" t="s">
         <v>113</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2">
       <c r="A104" s="38" t="s">
         <v>200</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2">
       <c r="A105" s="38" t="s">
         <v>93</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2">
       <c r="A106" s="38" t="s">
         <v>149</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2">
       <c r="A107" s="38" t="s">
         <v>201</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2">
       <c r="A108" s="38" t="s">
         <v>126</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2">
       <c r="A109" s="38" t="s">
         <v>140</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2">
       <c r="A110" s="38" t="s">
         <v>203</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2">
       <c r="A111" s="38" t="s">
         <v>202</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2">
       <c r="A112" s="38" t="s">
         <v>105</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2">
       <c r="A113" s="38" t="s">
         <v>204</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2">
       <c r="A114" s="38" t="s">
         <v>125</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2">
       <c r="A115" s="38" t="s">
         <v>205</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2">
       <c r="A116" s="38" t="s">
         <v>109</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2">
       <c r="A117" s="38" t="s">
         <v>94</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2">
       <c r="A118" s="38" t="s">
         <v>206</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2">
       <c r="A119" s="38" t="s">
         <v>207</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2">
       <c r="A120" s="38" t="s">
         <v>387</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2">
       <c r="A121" s="38" t="s">
         <v>437</v>
       </c>
@@ -6443,16 +6443,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E051ADCA-711D-4661-996E-F67A2551611D}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="16384" width="8.75" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1" s="40" t="s">
         <v>1461</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>1460</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="F1" s="40" t="s">
         <v>1459</v>
@@ -6499,7 +6499,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2" s="40" t="s">
         <v>1439</v>
       </c>
@@ -6579,21 +6579,21 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="29.25" customHeight="1">
       <c r="A3" s="48" t="s">
-        <v>1484</v>
-      </c>
-      <c r="B3" s="45" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C3" s="45" t="s">
         <v>1479</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>1480</v>
       </c>
       <c r="D3" s="46" t="s">
         <v>1469</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="H3" s="40" t="s">
         <v>1406</v>
@@ -6611,19 +6611,19 @@
         <v>1474</v>
       </c>
       <c r="R3" s="40">
-        <v>2</v>
-      </c>
-      <c r="S3" s="46" t="s">
-        <v>1481</v>
-      </c>
-      <c r="T3" s="40" t="s">
-        <v>1403</v>
+        <v>1</v>
+      </c>
+      <c r="S3" s="46">
+        <v>0</v>
+      </c>
+      <c r="T3" s="40">
+        <v>0</v>
       </c>
       <c r="U3" s="48" t="s">
+        <v>1484</v>
+      </c>
+      <c r="V3" s="48" t="s">
         <v>1486</v>
-      </c>
-      <c r="V3" s="48" t="s">
-        <v>1485</v>
       </c>
       <c r="AA3" s="44" t="s">
         <v>1476</v>
@@ -6644,14 +6644,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="4" width="8.75" style="38"/>
     <col min="5" max="5" width="11.125" style="38" customWidth="1"/>
     <col min="6" max="16384" width="8.75" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32">
       <c r="A1" s="38" t="s">
         <v>1461</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32">
       <c r="A2" s="38" t="s">
         <v>1439</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32">
       <c r="A3" s="38" t="s">
         <v>1408</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>2</v>
       </c>
       <c r="X3" s="47" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="Y3" s="38" t="s">
         <v>1403</v>
@@ -6855,14 +6855,14 @@
       <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="4" width="8.75" style="38"/>
     <col min="5" max="5" width="11.125" style="38" customWidth="1"/>
     <col min="6" max="16384" width="8.75" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32">
       <c r="A1" s="38" t="s">
         <v>1461</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32">
       <c r="A2" s="38" t="s">
         <v>1439</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32">
       <c r="A3" s="38" t="s">
         <v>1462</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>2</v>
       </c>
       <c r="X3" s="47" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="Y3" s="38" t="s">
         <v>1403</v>
@@ -7069,7 +7069,7 @@
       <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="31.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="33.125" style="6" customWidth="1"/>
@@ -7115,7 +7115,7 @@
     <col min="64" max="64" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:64" s="2" customFormat="1" ht="31.5" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:64" s="2" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:64" s="2" customFormat="1" ht="36.75" customHeight="1" thickBot="1">
       <c r="A2" s="9" t="s">
         <v>46</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:64" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" s="3" customFormat="1" ht="15" thickBot="1">
       <c r="A3" s="13"/>
       <c r="B3" s="13" t="s">
         <v>88</v>
@@ -7619,7 +7619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:64" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:64" s="4" customFormat="1">
       <c r="A4" s="13" t="s">
         <v>1402</v>
       </c>
@@ -7797,7 +7797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:64" s="5" customFormat="1">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -7829,7 +7829,7 @@
       <c r="BG5" s="16"/>
       <c r="BH5" s="16"/>
     </row>
-    <row r="6" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:64" s="5" customFormat="1">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -7861,7 +7861,7 @@
       <c r="BG6" s="16"/>
       <c r="BH6" s="16"/>
     </row>
-    <row r="7" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:64" s="5" customFormat="1">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -7893,7 +7893,7 @@
       <c r="BG7" s="16"/>
       <c r="BH7" s="16"/>
     </row>
-    <row r="8" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:64" s="5" customFormat="1">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -7925,7 +7925,7 @@
       <c r="BG8" s="16"/>
       <c r="BH8" s="16"/>
     </row>
-    <row r="9" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:64" s="5" customFormat="1">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -7957,7 +7957,7 @@
       <c r="BG9" s="16"/>
       <c r="BH9" s="16"/>
     </row>
-    <row r="10" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:64" s="5" customFormat="1">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -7989,7 +7989,7 @@
       <c r="BG10" s="16"/>
       <c r="BH10" s="16"/>
     </row>
-    <row r="11" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:64" s="5" customFormat="1">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -8021,7 +8021,7 @@
       <c r="BG11" s="16"/>
       <c r="BH11" s="16"/>
     </row>
-    <row r="12" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:64" s="5" customFormat="1">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -8053,7 +8053,7 @@
       <c r="BG12" s="16"/>
       <c r="BH12" s="16"/>
     </row>
-    <row r="13" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:64" s="5" customFormat="1">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -8085,7 +8085,7 @@
       <c r="BG13" s="16"/>
       <c r="BH13" s="16"/>
     </row>
-    <row r="14" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:64" s="5" customFormat="1">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -8117,7 +8117,7 @@
       <c r="BG14" s="16"/>
       <c r="BH14" s="16"/>
     </row>
-    <row r="15" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:64" s="5" customFormat="1">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -8149,7 +8149,7 @@
       <c r="BG15" s="16"/>
       <c r="BH15" s="16"/>
     </row>
-    <row r="16" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:64" s="5" customFormat="1">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -8181,7 +8181,7 @@
       <c r="BG16" s="16"/>
       <c r="BH16" s="16"/>
     </row>
-    <row r="17" spans="1:60" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:60" s="5" customFormat="1">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -8213,7 +8213,7 @@
       <c r="BG17" s="16"/>
       <c r="BH17" s="16"/>
     </row>
-    <row r="18" spans="1:60" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:60" s="5" customFormat="1">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -8245,7 +8245,7 @@
       <c r="BG18" s="16"/>
       <c r="BH18" s="16"/>
     </row>
-    <row r="19" spans="1:60" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:60" s="5" customFormat="1">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -8277,7 +8277,7 @@
       <c r="BG19" s="16"/>
       <c r="BH19" s="16"/>
     </row>
-    <row r="20" spans="1:60" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:60" s="5" customFormat="1">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -8456,7 +8456,7 @@
       <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="31.125" customWidth="1"/>
     <col min="2" max="2" width="42.875" customWidth="1"/>
@@ -8470,7 +8470,7 @@
     <col min="13" max="13" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>208</v>
       </c>
@@ -8490,7 +8490,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
         <v>173</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
         <v>161</v>
       </c>
@@ -8712,7 +8712,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
         <v>174</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
         <v>120</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
         <v>197</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
         <v>119</v>
       </c>
@@ -9082,7 +9082,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
         <v>184</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
         <v>146</v>
       </c>
@@ -9304,7 +9304,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
         <v>155</v>
       </c>
@@ -9378,7 +9378,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
         <v>132</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
         <v>205</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
         <v>356</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
         <v>121</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -9748,7 +9748,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
         <v>387</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>1.6000000238419001</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
         <v>202</v>
       </c>
@@ -9896,7 +9896,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
         <v>116</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
         <v>118</v>
       </c>
@@ -10044,7 +10044,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
         <v>96</v>
       </c>
@@ -10118,7 +10118,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
         <v>437</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
         <v>175</v>
       </c>
@@ -10266,7 +10266,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -10340,7 +10340,7 @@
         <v>1.6000000238419001</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
         <v>182</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>1.6000000238419001</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
         <v>206</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
         <v>137</v>
       </c>
@@ -10562,7 +10562,7 @@
         <v>1.7999999523162999</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
         <v>159</v>
       </c>
@@ -10636,7 +10636,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
         <v>134</v>
       </c>
@@ -10710,7 +10710,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
         <v>123</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>1.7999999523162999</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
         <v>200</v>
       </c>
@@ -10858,7 +10858,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -10932,7 +10932,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
         <v>165</v>
       </c>
@@ -11006,7 +11006,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
         <v>152</v>
       </c>
@@ -11080,7 +11080,7 @@
         <v>1.3999999761580999</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
         <v>201</v>
       </c>
@@ -11154,7 +11154,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
         <v>94</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
         <v>158</v>
       </c>
@@ -11302,7 +11302,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
         <v>593</v>
       </c>
@@ -11358,7 +11358,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
         <v>141</v>
       </c>
@@ -11432,7 +11432,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
         <v>606</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
         <v>204</v>
       </c>
@@ -11562,7 +11562,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
         <v>148</v>
       </c>
@@ -11636,7 +11636,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
         <v>105</v>
       </c>
@@ -11710,7 +11710,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
         <v>125</v>
       </c>
@@ -11784,7 +11784,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
         <v>203</v>
       </c>
@@ -11858,7 +11858,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
         <v>104</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
         <v>126</v>
       </c>
@@ -12006,7 +12006,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
         <v>110</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>1.8999999761580999</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
         <v>179</v>
       </c>
@@ -12154,7 +12154,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
         <v>172</v>
       </c>
@@ -12228,7 +12228,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
         <v>171</v>
       </c>
@@ -12302,7 +12302,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
         <v>88</v>
       </c>
@@ -12376,7 +12376,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
         <v>143</v>
       </c>
@@ -12450,7 +12450,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
         <v>93</v>
       </c>
@@ -12524,7 +12524,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
         <v>178</v>
       </c>
@@ -12598,7 +12598,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
         <v>170</v>
       </c>
@@ -12672,7 +12672,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
         <v>109</v>
       </c>
@@ -12746,7 +12746,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
         <v>106</v>
       </c>
@@ -12820,7 +12820,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
         <v>108</v>
       </c>
@@ -12894,7 +12894,7 @@
         <v>1.7999999523162999</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
         <v>112</v>
       </c>
@@ -12968,7 +12968,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
         <v>198</v>
       </c>
@@ -13042,7 +13042,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
         <v>196</v>
       </c>
@@ -13116,7 +13116,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
         <v>195</v>
       </c>
@@ -13190,7 +13190,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
         <v>164</v>
       </c>
@@ -13264,7 +13264,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
         <v>187</v>
       </c>
@@ -13338,7 +13338,7 @@
         <v>1.8999999761580999</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
         <v>113</v>
       </c>
@@ -13412,7 +13412,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
         <v>100</v>
       </c>
@@ -13486,7 +13486,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
         <v>114</v>
       </c>
@@ -13560,7 +13560,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
         <v>177</v>
       </c>
@@ -13634,7 +13634,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
         <v>194</v>
       </c>
@@ -13708,7 +13708,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
         <v>193</v>
       </c>
@@ -13782,7 +13782,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
         <v>192</v>
       </c>
@@ -13856,7 +13856,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
         <v>140</v>
       </c>
@@ -13930,7 +13930,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
         <v>97</v>
       </c>
@@ -14004,7 +14004,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
         <v>128</v>
       </c>
@@ -14078,7 +14078,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
         <v>147</v>
       </c>
@@ -14152,7 +14152,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
         <v>207</v>
       </c>
@@ -14226,7 +14226,7 @@
         <v>1.7999999523162999</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
         <v>111</v>
       </c>
@@ -14300,7 +14300,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
         <v>191</v>
       </c>
@@ -14374,7 +14374,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
         <v>150</v>
       </c>
@@ -14448,7 +14448,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
         <v>154</v>
       </c>
@@ -14522,7 +14522,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
         <v>122</v>
       </c>
@@ -14596,7 +14596,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
         <v>162</v>
       </c>
@@ -14670,7 +14670,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
         <v>138</v>
       </c>
@@ -14744,7 +14744,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
         <v>190</v>
       </c>
@@ -14818,7 +14818,7 @@
         <v>1.8999999761580999</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
         <v>189</v>
       </c>
@@ -14892,7 +14892,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
         <v>186</v>
       </c>
@@ -14966,7 +14966,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
         <v>188</v>
       </c>
@@ -15040,7 +15040,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
         <v>101</v>
       </c>
@@ -15114,7 +15114,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
         <v>131</v>
       </c>
@@ -15188,7 +15188,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
         <v>102</v>
       </c>
@@ -15262,7 +15262,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
         <v>181</v>
       </c>
@@ -15336,7 +15336,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
         <v>117</v>
       </c>
@@ -15410,7 +15410,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
         <v>107</v>
       </c>
@@ -15484,7 +15484,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -15558,7 +15558,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
         <v>185</v>
       </c>
@@ -15632,7 +15632,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
         <v>144</v>
       </c>
@@ -15706,7 +15706,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
         <v>139</v>
       </c>
@@ -15780,7 +15780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
         <v>135</v>
       </c>
@@ -15854,7 +15854,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
         <v>183</v>
       </c>
@@ -15928,7 +15928,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
         <v>157</v>
       </c>
@@ -16002,7 +16002,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
         <v>130</v>
       </c>
@@ -16076,7 +16076,7 @@
         <v>1.7999999523162999</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
         <v>167</v>
       </c>
@@ -16150,7 +16150,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
         <v>160</v>
       </c>
@@ -16224,7 +16224,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
         <v>180</v>
       </c>
@@ -16298,7 +16298,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
         <v>151</v>
       </c>
@@ -16372,7 +16372,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24">
       <c r="A109" t="s">
         <v>169</v>
       </c>
@@ -16446,7 +16446,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24">
       <c r="A110" t="s">
         <v>163</v>
       </c>
@@ -16520,7 +16520,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24">
       <c r="A111" t="s">
         <v>199</v>
       </c>
@@ -16594,7 +16594,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24">
       <c r="A112" t="s">
         <v>145</v>
       </c>
@@ -16668,7 +16668,7 @@
         <v>1.3999999761580999</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24">
       <c r="A113" t="s">
         <v>168</v>
       </c>
@@ -16742,7 +16742,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
         <v>136</v>
       </c>
@@ -16816,7 +16816,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
         <v>166</v>
       </c>
@@ -16890,7 +16890,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
         <v>99</v>
       </c>
@@ -16964,7 +16964,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24">
       <c r="A117" t="s">
         <v>129</v>
       </c>
@@ -17038,7 +17038,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24">
       <c r="A118" t="s">
         <v>153</v>
       </c>
@@ -17112,7 +17112,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24">
       <c r="A119" t="s">
         <v>149</v>
       </c>
@@ -17186,7 +17186,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
         <v>156</v>
       </c>
@@ -17260,7 +17260,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24">
       <c r="A121" t="s">
         <v>115</v>
       </c>
@@ -17334,7 +17334,7 @@
         <v>1.7000000476837001</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24">
       <c r="A122" t="s">
         <v>176</v>
       </c>

--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\imba\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selfimba\imba\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1603A9F3-3ECF-4AE4-8DC8-C3315AE10CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638989AA-2E02-4D70-8E09-622829331EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4545" yWindow="4545" windowWidth="32115" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="herolist" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="1481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="1488">
   <si>
     <t>英雄名</t>
   </si>
@@ -4476,9 +4476,6 @@
 }</t>
   </si>
   <si>
-    <t>attr_damage</t>
-  </si>
-  <si>
     <t xml:space="preserve">DOTA_ABILITY_BEHAVIOR_HIDDEN + DOTA_ABILITY_BEHAVIOR_PASSIVE </t>
   </si>
   <si>
@@ -4506,6 +4503,37 @@
   </si>
   <si>
     <t>ability_custom_base_attack</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability_custom_debuff_immune</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>无视减益免疫马甲</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>无视减益免疫</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPELL_IMMUNITY_ENEMIES_YES</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability_custom/ability_custom_base_attack</t>
+  </si>
+  <si>
+    <t>ability_custom/ability_custom_debuff_immune</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr_damage</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>marci_unleash_flurry</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -5157,21 +5185,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="53" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1" s="55" t="s">
         <v>1474</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="C1" s="53" t="s">
         <v>1475</v>
-      </c>
-      <c r="C1" s="53" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="53" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B2" s="55" t="s">
         <v>1477</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>1478</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5744,7 +5772,7 @@
     </row>
     <row r="74" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="53" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B74" s="57">
         <v>1</v>
@@ -6137,10 +6165,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6281,7 +6309,7 @@
     </row>
     <row r="3" spans="1:27" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="53" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>1463</v>
@@ -6295,6 +6323,9 @@
       <c r="E3" s="53" t="s">
         <v>1466</v>
       </c>
+      <c r="F3" t="s">
+        <v>1484</v>
+      </c>
       <c r="H3" s="56" t="s">
         <v>1453</v>
       </c>
@@ -6320,13 +6351,72 @@
         <v>0</v>
       </c>
       <c r="U3" s="53" t="s">
+        <v>1486</v>
+      </c>
+      <c r="V3" s="53" t="s">
         <v>1471</v>
       </c>
-      <c r="V3" s="53" t="s">
+      <c r="Z3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="AA3" s="59" t="s">
         <v>1472</v>
       </c>
-      <c r="AA3" s="59" t="s">
-        <v>1473</v>
+    </row>
+    <row r="4" spans="1:27" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="53" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1485</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>1453</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>1467</v>
+      </c>
+      <c r="J4" s="56" t="s">
+        <v>1468</v>
+      </c>
+      <c r="K4" s="56" t="s">
+        <v>1469</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>1470</v>
+      </c>
+      <c r="R4" s="57">
+        <v>1</v>
+      </c>
+      <c r="S4" s="57">
+        <v>0</v>
+      </c>
+      <c r="T4" s="57">
+        <v>0</v>
+      </c>
+      <c r="U4" s="53" t="s">
+        <v>1487</v>
+      </c>
+      <c r="V4" s="53" t="s">
+        <v>1471</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>1483</v>
+      </c>
+      <c r="AA4" s="59" t="s">
+        <v>1472</v>
       </c>
     </row>
   </sheetData>

--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selfimba\imba\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638989AA-2E02-4D70-8E09-622829331EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DC6378-F0A9-4CB2-A1CB-9E69306D89A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="4545" windowWidth="32115" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="3330" windowWidth="37800" windowHeight="16125" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="herolist" sheetId="1" r:id="rId1"/>
@@ -4476,9 +4476,6 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">DOTA_ABILITY_BEHAVIOR_HIDDEN + DOTA_ABILITY_BEHAVIOR_PASSIVE </t>
-  </si>
-  <si>
     <t>{
 "test" "this is test of plain kv"
 }</t>
@@ -4534,6 +4531,10 @@
   </si>
   <si>
     <t>marci_unleash_flurry</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_HIDDEN + DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -5185,21 +5186,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="53" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B1" s="55" t="s">
         <v>1473</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="C1" s="53" t="s">
         <v>1474</v>
-      </c>
-      <c r="C1" s="53" t="s">
-        <v>1475</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="53" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B2" s="55" t="s">
         <v>1476</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>1477</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5772,7 +5773,7 @@
     </row>
     <row r="74" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="53" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B74" s="57">
         <v>1</v>
@@ -6168,7 +6169,7 @@
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6309,7 +6310,7 @@
     </row>
     <row r="3" spans="1:27" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="53" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>1463</v>
@@ -6324,7 +6325,7 @@
         <v>1466</v>
       </c>
       <c r="F3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="H3" s="56" t="s">
         <v>1453</v>
@@ -6351,27 +6352,27 @@
         <v>0</v>
       </c>
       <c r="U3" s="53" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="V3" s="53" t="s">
+        <v>1487</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>1482</v>
+      </c>
+      <c r="AA3" s="59" t="s">
         <v>1471</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>1483</v>
-      </c>
-      <c r="AA3" s="59" t="s">
-        <v>1472</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="53" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B4" s="53" t="s">
         <v>1480</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="C4" s="53" t="s">
         <v>1481</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>1482</v>
       </c>
       <c r="D4" s="53" t="s">
         <v>1465</v>
@@ -6380,7 +6381,7 @@
         <v>1466</v>
       </c>
       <c r="F4" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="H4" s="56" t="s">
         <v>1453</v>
@@ -6407,16 +6408,16 @@
         <v>0</v>
       </c>
       <c r="U4" s="53" t="s">
+        <v>1486</v>
+      </c>
+      <c r="V4" s="53" t="s">
         <v>1487</v>
       </c>
-      <c r="V4" s="53" t="s">
+      <c r="Z4" t="s">
+        <v>1482</v>
+      </c>
+      <c r="AA4" s="59" t="s">
         <v>1471</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>1483</v>
-      </c>
-      <c r="AA4" s="59" t="s">
-        <v>1472</v>
       </c>
     </row>
   </sheetData>

--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selfimba\imba\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DC6378-F0A9-4CB2-A1CB-9E69306D89A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9C2168-7B79-45B4-8FD5-FF186D55798C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="3330" windowWidth="37800" windowHeight="16125" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="2340" windowWidth="37800" windowHeight="16125" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="herolist" sheetId="1" r:id="rId1"/>
@@ -4499,14 +4499,6 @@
     <t>npc_dota_hero_lycan</t>
   </si>
   <si>
-    <t>ability_custom_base_attack</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ability_custom_debuff_immune</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>无视减益免疫马甲</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -4519,13 +4511,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>ability_custom/ability_custom_base_attack</t>
-  </si>
-  <si>
-    <t>ability_custom/ability_custom_debuff_immune</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>attr_damage</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -4535,6 +4520,22 @@
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_HIDDEN + DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>imba_custom_base_attack</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>imba_custom_debuff_immune</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability_custom/imba_custom_base_attack</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability_custom/imba_custom_debuff_immune</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -6168,8 +6169,8 @@
   </sheetPr>
   <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6310,7 +6311,7 @@
     </row>
     <row r="3" spans="1:27" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="53" t="s">
-        <v>1478</v>
+        <v>1484</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>1463</v>
@@ -6325,7 +6326,7 @@
         <v>1466</v>
       </c>
       <c r="F3" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="H3" s="56" t="s">
         <v>1453</v>
@@ -6352,13 +6353,13 @@
         <v>0</v>
       </c>
       <c r="U3" s="53" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="V3" s="53" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="Z3" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="AA3" s="59" t="s">
         <v>1471</v>
@@ -6366,13 +6367,13 @@
     </row>
     <row r="4" spans="1:27" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="53" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C4" s="53" t="s">
         <v>1479</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>1481</v>
       </c>
       <c r="D4" s="53" t="s">
         <v>1465</v>
@@ -6381,7 +6382,7 @@
         <v>1466</v>
       </c>
       <c r="F4" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="H4" s="56" t="s">
         <v>1453</v>
@@ -6408,13 +6409,13 @@
         <v>0</v>
       </c>
       <c r="U4" s="53" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="V4" s="53" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="Z4" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="AA4" s="59" t="s">
         <v>1471</v>
